--- a/Output/summary_sorted/final_results.xlsx
+++ b/Output/summary_sorted/final_results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evelyn GAKINYA\Documents\18. MPCA Analysis\MPCA_Analysis\Output\summary_sorted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evelyn GAKINYA\Documents\GitHub\MPCA_Analysis\Output\summary_sorted\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -594,30 +594,6 @@
     <t>% of households by primary reason fearing eviction</t>
   </si>
   <si>
-    <t>% of households by primary reason fearing eviction.lack_funds</t>
-  </si>
-  <si>
-    <t>% of households by primary reason fearing eviction.no_longer_hosted</t>
-  </si>
-  <si>
-    <t>% of households by primary reason fearing eviction.unaccepted_by_community</t>
-  </si>
-  <si>
-    <t>% of households by primary reason fearing eviction.authorities_request</t>
-  </si>
-  <si>
-    <t>% of households by primary reason fearing eviction.owner_request</t>
-  </si>
-  <si>
-    <t>% of households by primary reason fearing eviction.no_agreement</t>
-  </si>
-  <si>
-    <t>% of households by primary reason fearing eviction.inadequate</t>
-  </si>
-  <si>
-    <t>% of households by primary reason fearing eviction.dispute</t>
-  </si>
-  <si>
     <t>Transfer Amount and Size</t>
   </si>
   <si>
@@ -1129,13 +1105,37 @@
   </si>
   <si>
     <t>Non refugee</t>
+  </si>
+  <si>
+    <t>Lack of funds to pay rental costs</t>
+  </si>
+  <si>
+    <t>Host family no longer able to host our family</t>
+  </si>
+  <si>
+    <t>Local community does not accept our family living in the area</t>
+  </si>
+  <si>
+    <t>Authorities requested our household to leave</t>
+  </si>
+  <si>
+    <t>Request to vacate from owner of building/land</t>
+  </si>
+  <si>
+    <t>No valid tenancy agreement</t>
+  </si>
+  <si>
+    <t>Inadequate housing / shelter condition</t>
+  </si>
+  <si>
+    <t>Ownership of property is disputed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1169,6 +1169,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1321,7 +1327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1335,14 +1341,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1352,24 +1367,25 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1651,11 +1667,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:TI7"/>
+  <dimension ref="A1:TI17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I10" sqref="I10"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1668,4795 +1684,4795 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:529" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="25"/>
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="25"/>
+      <c r="BD1" s="25"/>
+      <c r="BE1" s="25"/>
+      <c r="BF1" s="25"/>
+      <c r="BG1" s="25"/>
+      <c r="BH1" s="25"/>
+      <c r="BI1" s="25"/>
+      <c r="BJ1" s="25"/>
+      <c r="BK1" s="25"/>
+      <c r="BL1" s="25"/>
+      <c r="BM1" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="BN1" s="23"/>
+      <c r="BO1" s="23"/>
+      <c r="BP1" s="23"/>
+      <c r="BQ1" s="23"/>
+      <c r="BR1" s="23"/>
+      <c r="BS1" s="23"/>
+      <c r="BT1" s="23"/>
+      <c r="BU1" s="23"/>
+      <c r="BV1" s="23"/>
+      <c r="BW1" s="23"/>
+      <c r="BX1" s="23"/>
+      <c r="BY1" s="23"/>
+      <c r="BZ1" s="23"/>
+      <c r="CA1" s="23"/>
+      <c r="CB1" s="23"/>
+      <c r="CC1" s="23"/>
+      <c r="CD1" s="23"/>
+      <c r="CE1" s="23"/>
+      <c r="CF1" s="23"/>
+      <c r="CG1" s="23"/>
+      <c r="CH1" s="23"/>
+      <c r="CI1" s="23"/>
+      <c r="CJ1" s="23"/>
+      <c r="CK1" s="23"/>
+      <c r="CL1" s="23"/>
+      <c r="CM1" s="23"/>
+      <c r="CN1" s="23"/>
+      <c r="CO1" s="23"/>
+      <c r="CP1" s="23"/>
+      <c r="CQ1" s="23"/>
+      <c r="CR1" s="23"/>
+      <c r="CS1" s="23"/>
+      <c r="CT1" s="23"/>
+      <c r="CU1" s="23"/>
+      <c r="CV1" s="23"/>
+      <c r="CW1" s="23"/>
+      <c r="CX1" s="23"/>
+      <c r="CY1" s="23"/>
+      <c r="CZ1" s="23"/>
+      <c r="DA1" s="23"/>
+      <c r="DB1" s="23"/>
+      <c r="DC1" s="23"/>
+      <c r="DD1" s="23"/>
+      <c r="DE1" s="23"/>
+      <c r="DF1" s="23"/>
+      <c r="DG1" s="23"/>
+      <c r="DH1" s="23"/>
+      <c r="DI1" s="23"/>
+      <c r="DJ1" s="23"/>
+      <c r="DK1" s="23"/>
+      <c r="DL1" s="23"/>
+      <c r="DM1" s="23"/>
+      <c r="DN1" s="23"/>
+      <c r="DO1" s="23"/>
+      <c r="DP1" s="23"/>
+      <c r="DQ1" s="23"/>
+      <c r="DR1" s="23"/>
+      <c r="DS1" s="23"/>
+      <c r="DT1" s="23"/>
+      <c r="DU1" s="23"/>
+      <c r="DV1" s="23"/>
+      <c r="DW1" s="23"/>
+      <c r="DX1" s="23"/>
+      <c r="DY1" s="23"/>
+      <c r="DZ1" s="23"/>
+      <c r="EA1" s="23"/>
+      <c r="EB1" s="23"/>
+      <c r="EC1" s="23"/>
+      <c r="ED1" s="23"/>
+      <c r="EE1" s="23"/>
+      <c r="EF1" s="23"/>
+      <c r="EG1" s="23"/>
+      <c r="EH1" s="23"/>
+      <c r="EI1" s="23"/>
+      <c r="EJ1" s="23"/>
+      <c r="EK1" s="23"/>
+      <c r="EL1" s="23"/>
+      <c r="EM1" s="23"/>
+      <c r="EN1" s="23"/>
+      <c r="EO1" s="23"/>
+      <c r="EP1" s="23"/>
+      <c r="EQ1" s="23"/>
+      <c r="ER1" s="23"/>
+      <c r="ES1" s="23"/>
+      <c r="ET1" s="23"/>
+      <c r="EU1" s="23"/>
+      <c r="EV1" s="23"/>
+      <c r="EW1" s="23"/>
+      <c r="EX1" s="23"/>
+      <c r="EY1" s="23"/>
+      <c r="EZ1" s="23"/>
+      <c r="FA1" s="23"/>
+      <c r="FB1" s="23"/>
+      <c r="FC1" s="23"/>
+      <c r="FD1" s="23"/>
+      <c r="FE1" s="23"/>
+      <c r="FF1" s="23"/>
+      <c r="FG1" s="23"/>
+      <c r="FH1" s="23"/>
+      <c r="FI1" s="23"/>
+      <c r="FJ1" s="23"/>
+      <c r="FK1" s="23"/>
+      <c r="FL1" s="23"/>
+      <c r="FM1" s="23"/>
+      <c r="FN1" s="23"/>
+      <c r="FO1" s="23"/>
+      <c r="FP1" s="23"/>
+      <c r="FQ1" s="23"/>
+      <c r="FR1" s="23"/>
+      <c r="FS1" s="23"/>
+      <c r="FT1" s="23"/>
+      <c r="FU1" s="23"/>
+      <c r="FV1" s="23"/>
+      <c r="FW1" s="23"/>
+      <c r="FX1" s="23"/>
+      <c r="FY1" s="23"/>
+      <c r="FZ1" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="GA1" s="23"/>
+      <c r="GB1" s="23"/>
+      <c r="GC1" s="23"/>
+      <c r="GD1" s="23"/>
+      <c r="GE1" s="23"/>
+      <c r="GF1" s="23"/>
+      <c r="GG1" s="23"/>
+      <c r="GH1" s="23"/>
+      <c r="GI1" s="23"/>
+      <c r="GJ1" s="23"/>
+      <c r="GK1" s="23"/>
+      <c r="GL1" s="23"/>
+      <c r="GM1" s="23"/>
+      <c r="GN1" s="23"/>
+      <c r="GO1" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="GP1" s="23"/>
+      <c r="GQ1" s="23"/>
+      <c r="GR1" s="23"/>
+      <c r="GS1" s="23"/>
+      <c r="GT1" s="23"/>
+      <c r="GU1" s="23"/>
+      <c r="GV1" s="23"/>
+      <c r="GW1" s="23"/>
+      <c r="GX1" s="23"/>
+      <c r="GY1" s="23"/>
+      <c r="GZ1" s="23"/>
+      <c r="HA1" s="23"/>
+      <c r="HB1" s="23"/>
+      <c r="HC1" s="23"/>
+      <c r="HD1" s="23"/>
+      <c r="HE1" s="23"/>
+      <c r="HF1" s="23"/>
+      <c r="HG1" s="23"/>
+      <c r="HH1" s="23"/>
+      <c r="HI1" s="23"/>
+      <c r="HJ1" s="23"/>
+      <c r="HK1" s="23"/>
+      <c r="HL1" s="23"/>
+      <c r="HM1" s="23"/>
+      <c r="HN1" s="23"/>
+      <c r="HO1" s="23"/>
+      <c r="HP1" s="23"/>
+      <c r="HQ1" s="23"/>
+      <c r="HR1" s="23"/>
+      <c r="HS1" s="23"/>
+      <c r="HT1" s="23"/>
+      <c r="HU1" s="23"/>
+      <c r="HV1" s="23"/>
+      <c r="HW1" s="23"/>
+      <c r="HX1" s="23"/>
+      <c r="HY1" s="23"/>
+      <c r="HZ1" s="23"/>
+      <c r="IA1" s="23"/>
+      <c r="IB1" s="23"/>
+      <c r="IC1" s="23"/>
+      <c r="ID1" s="23"/>
+      <c r="IE1" s="23"/>
+      <c r="IF1" s="23"/>
+      <c r="IG1" s="23"/>
+      <c r="IH1" s="23"/>
+      <c r="II1" s="23"/>
+      <c r="IJ1" s="23"/>
+      <c r="IK1" s="23"/>
+      <c r="IL1" s="23"/>
+      <c r="IM1" s="23"/>
+      <c r="IN1" s="23"/>
+      <c r="IO1" s="23"/>
+      <c r="IP1" s="23"/>
+      <c r="IQ1" s="23"/>
+      <c r="IR1" s="23"/>
+      <c r="IS1" s="23"/>
+      <c r="IT1" s="23"/>
+      <c r="IU1" s="23"/>
+      <c r="IV1" s="23"/>
+      <c r="IW1" s="23"/>
+      <c r="IX1" s="23"/>
+      <c r="IY1" s="23"/>
+      <c r="IZ1" s="23"/>
+      <c r="JA1" s="23"/>
+      <c r="JB1" s="23"/>
+      <c r="JC1" s="23"/>
+      <c r="JD1" s="23"/>
+      <c r="JE1" s="23"/>
+      <c r="JF1" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="JG1" s="23"/>
+      <c r="JH1" s="23"/>
+      <c r="JI1" s="23"/>
+      <c r="JJ1" s="23"/>
+      <c r="JK1" s="23"/>
+      <c r="JL1" s="23"/>
+      <c r="JM1" s="23"/>
+      <c r="JN1" s="23"/>
+      <c r="JO1" s="23"/>
+      <c r="JP1" s="23"/>
+      <c r="JQ1" s="23"/>
+      <c r="JR1" s="23"/>
+      <c r="JS1" s="23"/>
+      <c r="JT1" s="23"/>
+      <c r="JU1" s="23"/>
+      <c r="JV1" s="23"/>
+      <c r="JW1" s="23"/>
+      <c r="JX1" s="23"/>
+      <c r="JY1" s="23"/>
+      <c r="JZ1" s="23"/>
+      <c r="KA1" s="23"/>
+      <c r="KB1" s="23"/>
+      <c r="KC1" s="23"/>
+      <c r="KD1" s="23"/>
+      <c r="KE1" s="23"/>
+      <c r="KF1" s="23"/>
+      <c r="KG1" s="23"/>
+      <c r="KH1" s="23"/>
+      <c r="KI1" s="23"/>
+      <c r="KJ1" s="23"/>
+      <c r="KK1" s="23"/>
+      <c r="KL1" s="23"/>
+      <c r="KM1" s="23"/>
+      <c r="KN1" s="23"/>
+      <c r="KO1" s="23"/>
+      <c r="KP1" s="23"/>
+      <c r="KQ1" s="23"/>
+      <c r="KR1" s="23"/>
+      <c r="KS1" s="23"/>
+      <c r="KT1" s="23"/>
+      <c r="KU1" s="23"/>
+      <c r="KV1" s="23"/>
+      <c r="KW1" s="23"/>
+      <c r="KX1" s="23"/>
+      <c r="KY1" s="23"/>
+      <c r="KZ1" s="23"/>
+      <c r="LA1" s="23"/>
+      <c r="LB1" s="23"/>
+      <c r="LC1" s="23"/>
+      <c r="LD1" s="23"/>
+      <c r="LE1" s="23"/>
+      <c r="LF1" s="23"/>
+      <c r="LG1" s="23"/>
+      <c r="LH1" s="23"/>
+      <c r="LI1" s="23"/>
+      <c r="LJ1" s="23"/>
+      <c r="LK1" s="23"/>
+      <c r="LL1" s="23"/>
+      <c r="LM1" s="23"/>
+      <c r="LN1" s="23"/>
+      <c r="LO1" s="23"/>
+      <c r="LP1" s="23"/>
+      <c r="LQ1" s="23"/>
+      <c r="LR1" s="23"/>
+      <c r="LS1" s="23"/>
+      <c r="LT1" s="23"/>
+      <c r="LU1" s="23"/>
+      <c r="LV1" s="23"/>
+      <c r="LW1" s="23"/>
+      <c r="LX1" s="23"/>
+      <c r="LY1" s="23"/>
+      <c r="LZ1" s="23"/>
+      <c r="MA1" s="23"/>
+      <c r="MB1" s="23"/>
+      <c r="MC1" s="23"/>
+      <c r="MD1" s="23"/>
+      <c r="ME1" s="23"/>
+      <c r="MF1" s="23"/>
+      <c r="MG1" s="23"/>
+      <c r="MH1" s="23"/>
+      <c r="MI1" s="23"/>
+      <c r="MJ1" s="23"/>
+      <c r="MK1" s="23"/>
+      <c r="ML1" s="23"/>
+      <c r="MM1" s="23"/>
+      <c r="MN1" s="23"/>
+      <c r="MO1" s="23"/>
+      <c r="MP1" s="23"/>
+      <c r="MQ1" s="23"/>
+      <c r="MR1" s="23"/>
+      <c r="MS1" s="23"/>
+      <c r="MT1" s="23"/>
+      <c r="MU1" s="23"/>
+      <c r="MV1" s="23"/>
+      <c r="MW1" s="23"/>
+      <c r="MX1" s="23"/>
+      <c r="MY1" s="23"/>
+      <c r="MZ1" s="23"/>
+      <c r="NA1" s="23"/>
+      <c r="NB1" s="23"/>
+      <c r="NC1" s="23"/>
+      <c r="ND1" s="23"/>
+      <c r="NE1" s="23"/>
+      <c r="NF1" s="23"/>
+      <c r="NG1" s="23"/>
+      <c r="NH1" s="23"/>
+      <c r="NI1" s="23"/>
+      <c r="NJ1" s="23"/>
+      <c r="NK1" s="23"/>
+      <c r="NL1" s="23"/>
+      <c r="NM1" s="23"/>
+      <c r="NN1" s="23"/>
+      <c r="NO1" s="23"/>
+      <c r="NP1" s="23"/>
+      <c r="NQ1" s="23"/>
+      <c r="NR1" s="23"/>
+      <c r="NS1" s="23"/>
+      <c r="NT1" s="23"/>
+      <c r="NU1" s="23"/>
+      <c r="NV1" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="NW1" s="23"/>
+      <c r="NX1" s="23"/>
+      <c r="NY1" s="23"/>
+      <c r="NZ1" s="23"/>
+      <c r="OA1" s="23"/>
+      <c r="OB1" s="23"/>
+      <c r="OC1" s="23"/>
+      <c r="OD1" s="23"/>
+      <c r="OE1" s="23"/>
+      <c r="OF1" s="23"/>
+      <c r="OG1" s="23"/>
+      <c r="OH1" s="23"/>
+      <c r="OI1" s="23"/>
+      <c r="OJ1" s="23"/>
+      <c r="OK1" s="23"/>
+      <c r="OL1" s="23"/>
+      <c r="OM1" s="23"/>
+      <c r="ON1" s="23"/>
+      <c r="OO1" s="23"/>
+      <c r="OP1" s="23"/>
+      <c r="OQ1" s="23"/>
+      <c r="OR1" s="23"/>
+      <c r="OS1" s="23"/>
+      <c r="OT1" s="23"/>
+      <c r="OU1" s="23"/>
+      <c r="OV1" s="23"/>
+      <c r="OW1" s="23"/>
+      <c r="OX1" s="23"/>
+      <c r="OY1" s="23"/>
+      <c r="OZ1" s="23"/>
+      <c r="PA1" s="23"/>
+      <c r="PB1" s="23"/>
+      <c r="PC1" s="23"/>
+      <c r="PD1" s="23"/>
+      <c r="PE1" s="23"/>
+      <c r="PF1" s="23"/>
+      <c r="PG1" s="23"/>
+      <c r="PH1" s="23"/>
+      <c r="PI1" s="23"/>
+      <c r="PJ1" s="23"/>
+      <c r="PK1" s="23"/>
+      <c r="PL1" s="23"/>
+      <c r="PM1" s="23"/>
+      <c r="PN1" s="23"/>
+      <c r="PO1" s="23"/>
+      <c r="PP1" s="23"/>
+      <c r="PQ1" s="23"/>
+      <c r="PR1" s="23"/>
+      <c r="PS1" s="23"/>
+      <c r="PT1" s="23"/>
+      <c r="PU1" s="23"/>
+      <c r="PV1" s="23"/>
+      <c r="PW1" s="23"/>
+      <c r="PX1" s="23"/>
+      <c r="PY1" s="23"/>
+      <c r="PZ1" s="23"/>
+      <c r="QA1" s="23"/>
+      <c r="QB1" s="23"/>
+      <c r="QC1" s="23"/>
+      <c r="QD1" s="23"/>
+      <c r="QE1" s="23"/>
+      <c r="QF1" s="23"/>
+      <c r="QG1" s="23"/>
+      <c r="QH1" s="23"/>
+      <c r="QI1" s="23"/>
+      <c r="QJ1" s="23"/>
+      <c r="QK1" s="23"/>
+      <c r="QL1" s="23"/>
+      <c r="QM1" s="23"/>
+      <c r="QN1" s="23"/>
+      <c r="QO1" s="23"/>
+      <c r="QP1" s="23"/>
+      <c r="QQ1" s="23"/>
+      <c r="QR1" s="23"/>
+      <c r="QS1" s="23"/>
+      <c r="QT1" s="23"/>
+      <c r="QU1" s="23"/>
+      <c r="QV1" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="QW1" s="23"/>
+      <c r="QX1" s="23"/>
+      <c r="QY1" s="23"/>
+      <c r="QZ1" s="23"/>
+      <c r="RA1" s="23"/>
+      <c r="RB1" s="23"/>
+      <c r="RC1" s="23"/>
+      <c r="RD1" s="23"/>
+      <c r="RE1" s="23"/>
+      <c r="RF1" s="23"/>
+      <c r="RG1" s="23"/>
+      <c r="RH1" s="23"/>
+      <c r="RI1" s="23"/>
+      <c r="RJ1" s="23"/>
+      <c r="RK1" s="23"/>
+      <c r="RL1" s="23"/>
+      <c r="RM1" s="23"/>
+      <c r="RN1" s="23"/>
+      <c r="RO1" s="23"/>
+      <c r="RP1" s="23"/>
+      <c r="RQ1" s="23"/>
+      <c r="RR1" s="23"/>
+      <c r="RS1" s="23"/>
+      <c r="RT1" s="23"/>
+      <c r="RU1" s="23"/>
+      <c r="RV1" s="23"/>
+      <c r="RW1" s="23"/>
+      <c r="RX1" s="23"/>
+      <c r="RY1" s="23"/>
+      <c r="RZ1" s="23"/>
+      <c r="SA1" s="23"/>
+      <c r="SB1" s="23"/>
+      <c r="SC1" s="23"/>
+      <c r="SD1" s="23"/>
+      <c r="SE1" s="23"/>
+      <c r="SF1" s="23"/>
+      <c r="SG1" s="23"/>
+      <c r="SH1" s="23"/>
+      <c r="SI1" s="23"/>
+      <c r="SJ1" s="23"/>
+      <c r="SK1" s="23"/>
+      <c r="SL1" s="23"/>
+      <c r="SM1" s="23"/>
+      <c r="SN1" s="23"/>
+      <c r="SO1" s="23"/>
+      <c r="SP1" s="23"/>
+      <c r="SQ1" s="23"/>
+      <c r="SR1" s="23"/>
+      <c r="SS1" s="23"/>
+      <c r="ST1" s="23"/>
+      <c r="SU1" s="23"/>
+      <c r="SV1" s="23"/>
+      <c r="SW1" s="23"/>
+      <c r="SX1" s="23"/>
+      <c r="SY1" s="23"/>
+      <c r="SZ1" s="23"/>
+      <c r="TA1" s="23"/>
+      <c r="TB1" s="23"/>
+      <c r="TC1" s="23"/>
+      <c r="TD1" s="23"/>
+      <c r="TE1" s="23"/>
+      <c r="TF1" s="23"/>
+      <c r="TG1" s="23"/>
+      <c r="TH1" s="23"/>
+      <c r="TI1" s="23"/>
+    </row>
+    <row r="2" spans="1:529" s="10" customFormat="1" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="O2" s="21"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="U2" s="21"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="22"/>
+      <c r="AU2" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="22"/>
+      <c r="AX2" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="22"/>
+      <c r="BA2" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="BB2" s="21"/>
+      <c r="BC2" s="22"/>
+      <c r="BD2" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="22"/>
+      <c r="BG2" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="BH2" s="21"/>
+      <c r="BI2" s="22"/>
+      <c r="BJ2" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="BK2" s="21"/>
+      <c r="BL2" s="22"/>
+      <c r="BM2" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="BN2" s="21"/>
+      <c r="BO2" s="22"/>
+      <c r="BP2" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="BQ2" s="21"/>
+      <c r="BR2" s="22"/>
+      <c r="BS2" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="BT2" s="21"/>
+      <c r="BU2" s="22"/>
+      <c r="BV2" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="BW2" s="21"/>
+      <c r="BX2" s="22"/>
+      <c r="BY2" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ2" s="21"/>
+      <c r="CA2" s="22"/>
+      <c r="CB2" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="CC2" s="21"/>
+      <c r="CD2" s="22"/>
+      <c r="CE2" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="CF2" s="21"/>
+      <c r="CG2" s="22"/>
+      <c r="CH2" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="CI2" s="21"/>
+      <c r="CJ2" s="22"/>
+      <c r="CK2" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="CL2" s="21"/>
+      <c r="CM2" s="22"/>
+      <c r="CN2" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="CO2" s="21"/>
+      <c r="CP2" s="22"/>
+      <c r="CQ2" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="CR2" s="21"/>
+      <c r="CS2" s="22"/>
+      <c r="CT2" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="CU2" s="21"/>
+      <c r="CV2" s="22"/>
+      <c r="CW2" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="CX2" s="21"/>
+      <c r="CY2" s="22"/>
+      <c r="CZ2" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="DA2" s="21"/>
+      <c r="DB2" s="22"/>
+      <c r="DC2" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="DD2" s="21"/>
+      <c r="DE2" s="22"/>
+      <c r="DF2" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="DG2" s="21"/>
+      <c r="DH2" s="22"/>
+      <c r="DI2" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="DJ2" s="21"/>
+      <c r="DK2" s="22"/>
+      <c r="DL2" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="DM2" s="21"/>
+      <c r="DN2" s="22"/>
+      <c r="DO2" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="DP2" s="21"/>
+      <c r="DQ2" s="22"/>
+      <c r="DR2" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="DS2" s="21"/>
+      <c r="DT2" s="22"/>
+      <c r="DU2" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="DV2" s="21"/>
+      <c r="DW2" s="22"/>
+      <c r="DX2" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="DY2" s="21"/>
+      <c r="DZ2" s="22"/>
+      <c r="EA2" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="EB2" s="21"/>
+      <c r="EC2" s="22"/>
+      <c r="ED2" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="EE2" s="21"/>
+      <c r="EF2" s="22"/>
+      <c r="EG2" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="EH2" s="21"/>
+      <c r="EI2" s="22"/>
+      <c r="EJ2" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="EK2" s="21"/>
+      <c r="EL2" s="22"/>
+      <c r="EM2" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="EN2" s="21"/>
+      <c r="EO2" s="22"/>
+      <c r="EP2" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="EQ2" s="21"/>
+      <c r="ER2" s="22"/>
+      <c r="ES2" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="ET2" s="21"/>
+      <c r="EU2" s="22"/>
+      <c r="EV2" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="EW2" s="21"/>
+      <c r="EX2" s="22"/>
+      <c r="EY2" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="EZ2" s="21"/>
+      <c r="FA2" s="22"/>
+      <c r="FB2" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="FC2" s="21"/>
+      <c r="FD2" s="22"/>
+      <c r="FE2" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="FF2" s="21"/>
+      <c r="FG2" s="22"/>
+      <c r="FH2" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="FI2" s="21"/>
+      <c r="FJ2" s="22"/>
+      <c r="FK2" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="FL2" s="21"/>
+      <c r="FM2" s="22"/>
+      <c r="FN2" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="FO2" s="21"/>
+      <c r="FP2" s="22"/>
+      <c r="FQ2" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="FR2" s="21"/>
+      <c r="FS2" s="22"/>
+      <c r="FT2" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="FU2" s="21"/>
+      <c r="FV2" s="22"/>
+      <c r="FW2" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="FX2" s="21"/>
+      <c r="FY2" s="22"/>
+      <c r="FZ2" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="GA2" s="21"/>
+      <c r="GB2" s="22"/>
+      <c r="GC2" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="GD2" s="21"/>
+      <c r="GE2" s="22"/>
+      <c r="GF2" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="GG2" s="21"/>
+      <c r="GH2" s="22"/>
+      <c r="GI2" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="GJ2" s="21"/>
+      <c r="GK2" s="22"/>
+      <c r="GL2" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM2" s="21"/>
+      <c r="GN2" s="22"/>
+      <c r="GO2" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="GP2" s="21"/>
+      <c r="GQ2" s="22"/>
+      <c r="GR2" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="GS2" s="21"/>
+      <c r="GT2" s="22"/>
+      <c r="GU2" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="GV2" s="21"/>
+      <c r="GW2" s="22"/>
+      <c r="GX2" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="GY2" s="21"/>
+      <c r="GZ2" s="22"/>
+      <c r="HA2" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="HB2" s="21"/>
+      <c r="HC2" s="22"/>
+      <c r="HD2" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="HE2" s="21"/>
+      <c r="HF2" s="22"/>
+      <c r="HG2" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="HH2" s="21"/>
+      <c r="HI2" s="22"/>
+      <c r="HJ2" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="HK2" s="21"/>
+      <c r="HL2" s="22"/>
+      <c r="HM2" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="HN2" s="21"/>
+      <c r="HO2" s="22"/>
+      <c r="HP2" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="HQ2" s="21"/>
+      <c r="HR2" s="22"/>
+      <c r="HS2" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="HT2" s="21"/>
+      <c r="HU2" s="22"/>
+      <c r="HV2" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="HW2" s="21"/>
+      <c r="HX2" s="22"/>
+      <c r="HY2" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="HZ2" s="21"/>
+      <c r="IA2" s="22"/>
+      <c r="IB2" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="IC2" s="21"/>
+      <c r="ID2" s="22"/>
+      <c r="IE2" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="IF2" s="21"/>
+      <c r="IG2" s="22"/>
+      <c r="IH2" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="II2" s="21"/>
+      <c r="IJ2" s="22"/>
+      <c r="IK2" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="IL2" s="21"/>
+      <c r="IM2" s="22"/>
+      <c r="IN2" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="IO2" s="21"/>
+      <c r="IP2" s="22"/>
+      <c r="IQ2" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="IR2" s="21"/>
+      <c r="IS2" s="22"/>
+      <c r="IT2" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="IU2" s="21"/>
+      <c r="IV2" s="22"/>
+      <c r="IW2" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="IX2" s="21"/>
+      <c r="IY2" s="22"/>
+      <c r="IZ2" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="JA2" s="21"/>
+      <c r="JB2" s="22"/>
+      <c r="JC2" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="JD2" s="21"/>
+      <c r="JE2" s="22"/>
+      <c r="JF2" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="JG2" s="21"/>
+      <c r="JH2" s="22"/>
+      <c r="JI2" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="JJ2" s="21"/>
+      <c r="JK2" s="22"/>
+      <c r="JL2" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="JM2" s="21"/>
+      <c r="JN2" s="22"/>
+      <c r="JO2" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="JP2" s="21"/>
+      <c r="JQ2" s="22"/>
+      <c r="JR2" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="JS2" s="21"/>
+      <c r="JT2" s="22"/>
+      <c r="JU2" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="JV2" s="21"/>
+      <c r="JW2" s="22"/>
+      <c r="JX2" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="JY2" s="21"/>
+      <c r="JZ2" s="22"/>
+      <c r="KA2" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="KB2" s="21"/>
+      <c r="KC2" s="22"/>
+      <c r="KD2" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="KE2" s="21"/>
+      <c r="KF2" s="22"/>
+      <c r="KG2" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="KH2" s="21"/>
+      <c r="KI2" s="22"/>
+      <c r="KJ2" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="KK2" s="21"/>
+      <c r="KL2" s="22"/>
+      <c r="KM2" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="KN2" s="21"/>
+      <c r="KO2" s="22"/>
+      <c r="KP2" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="KQ2" s="21"/>
+      <c r="KR2" s="22"/>
+      <c r="KS2" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="KT2" s="21"/>
+      <c r="KU2" s="22"/>
+      <c r="KV2" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="KW2" s="21"/>
+      <c r="KX2" s="22"/>
+      <c r="KY2" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="KZ2" s="21"/>
+      <c r="LA2" s="22"/>
+      <c r="LB2" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="LC2" s="21"/>
+      <c r="LD2" s="22"/>
+      <c r="LE2" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="LF2" s="21"/>
+      <c r="LG2" s="22"/>
+      <c r="LH2" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="LI2" s="21"/>
+      <c r="LJ2" s="22"/>
+      <c r="LK2" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="LL2" s="21"/>
+      <c r="LM2" s="22"/>
+      <c r="LN2" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="LO2" s="21"/>
+      <c r="LP2" s="22"/>
+      <c r="LQ2" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="LR2" s="21"/>
+      <c r="LS2" s="22"/>
+      <c r="LT2" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="LU2" s="21"/>
+      <c r="LV2" s="22"/>
+      <c r="LW2" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="LX2" s="21"/>
+      <c r="LY2" s="22"/>
+      <c r="LZ2" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="MA2" s="21"/>
+      <c r="MB2" s="22"/>
+      <c r="MC2" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="MD2" s="21"/>
+      <c r="ME2" s="22"/>
+      <c r="MF2" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="MG2" s="21"/>
+      <c r="MH2" s="22"/>
+      <c r="MI2" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="MJ2" s="21"/>
+      <c r="MK2" s="22"/>
+      <c r="ML2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="MM2" s="21"/>
+      <c r="MN2" s="22"/>
+      <c r="MO2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="MP2" s="21"/>
+      <c r="MQ2" s="22"/>
+      <c r="MR2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="MS2" s="21"/>
+      <c r="MT2" s="22"/>
+      <c r="MU2" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="MV2" s="21"/>
+      <c r="MW2" s="22"/>
+      <c r="MX2" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="MY2" s="21"/>
+      <c r="MZ2" s="22"/>
+      <c r="NA2" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="NB2" s="21"/>
+      <c r="NC2" s="22"/>
+      <c r="ND2" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="NE2" s="21"/>
+      <c r="NF2" s="22"/>
+      <c r="NG2" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="NH2" s="21"/>
+      <c r="NI2" s="22"/>
+      <c r="NJ2" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="NK2" s="21"/>
+      <c r="NL2" s="22"/>
+      <c r="NM2" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="NN2" s="21"/>
+      <c r="NO2" s="22"/>
+      <c r="NP2" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="NQ2" s="21"/>
+      <c r="NR2" s="22"/>
+      <c r="NS2" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="NT2" s="21"/>
+      <c r="NU2" s="22"/>
+      <c r="NV2" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="NW2" s="21"/>
+      <c r="NX2" s="22"/>
+      <c r="NY2" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="NZ2" s="21"/>
+      <c r="OA2" s="22"/>
+      <c r="OB2" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="OC2" s="21"/>
+      <c r="OD2" s="22"/>
+      <c r="OE2" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="OF2" s="21"/>
+      <c r="OG2" s="22"/>
+      <c r="OH2" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="OI2" s="21"/>
+      <c r="OJ2" s="22"/>
+      <c r="OK2" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="OL2" s="21"/>
+      <c r="OM2" s="22"/>
+      <c r="ON2" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="OO2" s="21"/>
+      <c r="OP2" s="22"/>
+      <c r="OQ2" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="OR2" s="21"/>
+      <c r="OS2" s="22"/>
+      <c r="OT2" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="OU2" s="21"/>
+      <c r="OV2" s="22"/>
+      <c r="OW2" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="OX2" s="21"/>
+      <c r="OY2" s="22"/>
+      <c r="OZ2" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="PA2" s="21"/>
+      <c r="PB2" s="22"/>
+      <c r="PC2" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="PD2" s="21"/>
+      <c r="PE2" s="22"/>
+      <c r="PF2" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="PG2" s="21"/>
+      <c r="PH2" s="22"/>
+      <c r="PI2" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="PJ2" s="21"/>
+      <c r="PK2" s="22"/>
+      <c r="PL2" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="PM2" s="21"/>
+      <c r="PN2" s="22"/>
+      <c r="PO2" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="PP2" s="21"/>
+      <c r="PQ2" s="22"/>
+      <c r="PR2" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="PS2" s="21"/>
+      <c r="PT2" s="22"/>
+      <c r="PU2" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="PV2" s="21"/>
+      <c r="PW2" s="22"/>
+      <c r="PX2" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="PY2" s="21"/>
+      <c r="PZ2" s="22"/>
+      <c r="QA2" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="QB2" s="21"/>
+      <c r="QC2" s="22"/>
+      <c r="QD2" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="QE2" s="21"/>
+      <c r="QF2" s="22"/>
+      <c r="QG2" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="QH2" s="21"/>
+      <c r="QI2" s="22"/>
+      <c r="QJ2" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="QK2" s="21"/>
+      <c r="QL2" s="22"/>
+      <c r="QM2" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="QN2" s="21"/>
+      <c r="QO2" s="22"/>
+      <c r="QP2" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="QQ2" s="21"/>
+      <c r="QR2" s="22"/>
+      <c r="QS2" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="QT2" s="21"/>
+      <c r="QU2" s="22"/>
+      <c r="QV2" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="QW2" s="21"/>
+      <c r="QX2" s="22"/>
+      <c r="QY2" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="QZ2" s="21"/>
+      <c r="RA2" s="22"/>
+      <c r="RB2" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="RC2" s="21"/>
+      <c r="RD2" s="22"/>
+      <c r="RE2" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="RF2" s="21"/>
+      <c r="RG2" s="22"/>
+      <c r="RH2" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="RI2" s="21"/>
+      <c r="RJ2" s="22"/>
+      <c r="RK2" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="RL2" s="21"/>
+      <c r="RM2" s="22"/>
+      <c r="RN2" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="RO2" s="21"/>
+      <c r="RP2" s="22"/>
+      <c r="RQ2" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="RR2" s="21"/>
+      <c r="RS2" s="22"/>
+      <c r="RT2" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="RU2" s="21"/>
+      <c r="RV2" s="22"/>
+      <c r="RW2" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="RX2" s="21"/>
+      <c r="RY2" s="22"/>
+      <c r="RZ2" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="SA2" s="21"/>
+      <c r="SB2" s="22"/>
+      <c r="SC2" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="SD2" s="21"/>
+      <c r="SE2" s="22"/>
+      <c r="SF2" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="SG2" s="21"/>
+      <c r="SH2" s="22"/>
+      <c r="SI2" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="SJ2" s="21"/>
+      <c r="SK2" s="22"/>
+      <c r="SL2" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="SM2" s="21"/>
+      <c r="SN2" s="22"/>
+      <c r="SO2" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="SP2" s="21"/>
+      <c r="SQ2" s="22"/>
+      <c r="SR2" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="SS2" s="21"/>
+      <c r="ST2" s="22"/>
+      <c r="SU2" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="SV2" s="21"/>
+      <c r="SW2" s="22"/>
+      <c r="SX2" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="SY2" s="21"/>
+      <c r="SZ2" s="22"/>
+      <c r="TA2" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="TB2" s="21"/>
+      <c r="TC2" s="22"/>
+      <c r="TD2" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="TE2" s="21"/>
+      <c r="TF2" s="22"/>
+      <c r="TG2" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="TH2" s="21"/>
+      <c r="TI2" s="22"/>
+    </row>
+    <row r="3" spans="1:529" s="10" customFormat="1" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="O3" s="21"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="R3" s="21"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="U3" s="21"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="22"/>
+      <c r="AL3" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="22"/>
+      <c r="AO3" s="27" t="s">
         <v>362</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="17"/>
-      <c r="BB1" s="17"/>
-      <c r="BC1" s="17"/>
-      <c r="BD1" s="17"/>
-      <c r="BE1" s="17"/>
-      <c r="BF1" s="17"/>
-      <c r="BG1" s="17"/>
-      <c r="BH1" s="17"/>
-      <c r="BI1" s="17"/>
-      <c r="BJ1" s="17"/>
-      <c r="BK1" s="17"/>
-      <c r="BL1" s="17"/>
-      <c r="BM1" s="18" t="s">
+      <c r="AP3" s="28"/>
+      <c r="AQ3" s="29"/>
+      <c r="AR3" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="AS3" s="21"/>
+      <c r="AT3" s="22"/>
+      <c r="AU3" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="AV3" s="21"/>
+      <c r="AW3" s="22"/>
+      <c r="AX3" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="AY3" s="21"/>
+      <c r="AZ3" s="22"/>
+      <c r="BA3" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="BB3" s="21"/>
+      <c r="BC3" s="22"/>
+      <c r="BD3" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="BE3" s="21"/>
+      <c r="BF3" s="22"/>
+      <c r="BG3" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="BH3" s="21"/>
+      <c r="BI3" s="22"/>
+      <c r="BJ3" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="BK3" s="21"/>
+      <c r="BL3" s="22"/>
+      <c r="BM3" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN3" s="21"/>
+      <c r="BO3" s="22"/>
+      <c r="BP3" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="BQ3" s="21"/>
+      <c r="BR3" s="22"/>
+      <c r="BS3" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="BT3" s="21"/>
+      <c r="BU3" s="22"/>
+      <c r="BV3" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="BW3" s="21"/>
+      <c r="BX3" s="22"/>
+      <c r="BY3" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="BZ3" s="21"/>
+      <c r="CA3" s="22"/>
+      <c r="CB3" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="CC3" s="21"/>
+      <c r="CD3" s="22"/>
+      <c r="CE3" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="BN1" s="18"/>
-      <c r="BO1" s="18"/>
-      <c r="BP1" s="18"/>
-      <c r="BQ1" s="18"/>
-      <c r="BR1" s="18"/>
-      <c r="BS1" s="18"/>
-      <c r="BT1" s="18"/>
-      <c r="BU1" s="18"/>
-      <c r="BV1" s="18"/>
-      <c r="BW1" s="18"/>
-      <c r="BX1" s="18"/>
-      <c r="BY1" s="18"/>
-      <c r="BZ1" s="18"/>
-      <c r="CA1" s="18"/>
-      <c r="CB1" s="18"/>
-      <c r="CC1" s="18"/>
-      <c r="CD1" s="18"/>
-      <c r="CE1" s="18"/>
-      <c r="CF1" s="18"/>
-      <c r="CG1" s="18"/>
-      <c r="CH1" s="18"/>
-      <c r="CI1" s="18"/>
-      <c r="CJ1" s="18"/>
-      <c r="CK1" s="18"/>
-      <c r="CL1" s="18"/>
-      <c r="CM1" s="18"/>
-      <c r="CN1" s="18"/>
-      <c r="CO1" s="18"/>
-      <c r="CP1" s="18"/>
-      <c r="CQ1" s="18"/>
-      <c r="CR1" s="18"/>
-      <c r="CS1" s="18"/>
-      <c r="CT1" s="18"/>
-      <c r="CU1" s="18"/>
-      <c r="CV1" s="18"/>
-      <c r="CW1" s="18"/>
-      <c r="CX1" s="18"/>
-      <c r="CY1" s="18"/>
-      <c r="CZ1" s="18"/>
-      <c r="DA1" s="18"/>
-      <c r="DB1" s="18"/>
-      <c r="DC1" s="18"/>
-      <c r="DD1" s="18"/>
-      <c r="DE1" s="18"/>
-      <c r="DF1" s="18"/>
-      <c r="DG1" s="18"/>
-      <c r="DH1" s="18"/>
-      <c r="DI1" s="18"/>
-      <c r="DJ1" s="18"/>
-      <c r="DK1" s="18"/>
-      <c r="DL1" s="18"/>
-      <c r="DM1" s="18"/>
-      <c r="DN1" s="18"/>
-      <c r="DO1" s="18"/>
-      <c r="DP1" s="18"/>
-      <c r="DQ1" s="18"/>
-      <c r="DR1" s="18"/>
-      <c r="DS1" s="18"/>
-      <c r="DT1" s="18"/>
-      <c r="DU1" s="18"/>
-      <c r="DV1" s="18"/>
-      <c r="DW1" s="18"/>
-      <c r="DX1" s="18"/>
-      <c r="DY1" s="18"/>
-      <c r="DZ1" s="18"/>
-      <c r="EA1" s="18"/>
-      <c r="EB1" s="18"/>
-      <c r="EC1" s="18"/>
-      <c r="ED1" s="18"/>
-      <c r="EE1" s="18"/>
-      <c r="EF1" s="18"/>
-      <c r="EG1" s="18"/>
-      <c r="EH1" s="18"/>
-      <c r="EI1" s="18"/>
-      <c r="EJ1" s="18"/>
-      <c r="EK1" s="18"/>
-      <c r="EL1" s="18"/>
-      <c r="EM1" s="18"/>
-      <c r="EN1" s="18"/>
-      <c r="EO1" s="18"/>
-      <c r="EP1" s="18"/>
-      <c r="EQ1" s="18"/>
-      <c r="ER1" s="18"/>
-      <c r="ES1" s="18"/>
-      <c r="ET1" s="18"/>
-      <c r="EU1" s="18"/>
-      <c r="EV1" s="18"/>
-      <c r="EW1" s="18"/>
-      <c r="EX1" s="18"/>
-      <c r="EY1" s="18"/>
-      <c r="EZ1" s="18"/>
-      <c r="FA1" s="18"/>
-      <c r="FB1" s="18"/>
-      <c r="FC1" s="18"/>
-      <c r="FD1" s="18"/>
-      <c r="FE1" s="18"/>
-      <c r="FF1" s="18"/>
-      <c r="FG1" s="18"/>
-      <c r="FH1" s="18"/>
-      <c r="FI1" s="18"/>
-      <c r="FJ1" s="18"/>
-      <c r="FK1" s="18"/>
-      <c r="FL1" s="18"/>
-      <c r="FM1" s="18"/>
-      <c r="FN1" s="18"/>
-      <c r="FO1" s="18"/>
-      <c r="FP1" s="18"/>
-      <c r="FQ1" s="18"/>
-      <c r="FR1" s="18"/>
-      <c r="FS1" s="18"/>
-      <c r="FT1" s="18"/>
-      <c r="FU1" s="18"/>
-      <c r="FV1" s="18"/>
-      <c r="FW1" s="18"/>
-      <c r="FX1" s="18"/>
-      <c r="FY1" s="18"/>
-      <c r="FZ1" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="GA1" s="18"/>
-      <c r="GB1" s="18"/>
-      <c r="GC1" s="18"/>
-      <c r="GD1" s="18"/>
-      <c r="GE1" s="18"/>
-      <c r="GF1" s="18"/>
-      <c r="GG1" s="18"/>
-      <c r="GH1" s="18"/>
-      <c r="GI1" s="18"/>
-      <c r="GJ1" s="18"/>
-      <c r="GK1" s="18"/>
-      <c r="GL1" s="18"/>
-      <c r="GM1" s="18"/>
-      <c r="GN1" s="18"/>
-      <c r="GO1" s="18" t="s">
+      <c r="CF3" s="21"/>
+      <c r="CG3" s="22"/>
+      <c r="CH3" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="CI3" s="21"/>
+      <c r="CJ3" s="22"/>
+      <c r="CK3" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="CL3" s="21"/>
+      <c r="CM3" s="22"/>
+      <c r="CN3" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="CO3" s="21"/>
+      <c r="CP3" s="22"/>
+      <c r="CQ3" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="CR3" s="21"/>
+      <c r="CS3" s="22"/>
+      <c r="CT3" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="CU3" s="21"/>
+      <c r="CV3" s="22"/>
+      <c r="CW3" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="CX3" s="21"/>
+      <c r="CY3" s="22"/>
+      <c r="CZ3" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="DA3" s="21"/>
+      <c r="DB3" s="22"/>
+      <c r="DC3" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="DD3" s="21"/>
+      <c r="DE3" s="22"/>
+      <c r="DF3" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="DG3" s="21"/>
+      <c r="DH3" s="22"/>
+      <c r="DI3" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="DJ3" s="21"/>
+      <c r="DK3" s="22"/>
+      <c r="DL3" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="DM3" s="21"/>
+      <c r="DN3" s="22"/>
+      <c r="DO3" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="DP3" s="21"/>
+      <c r="DQ3" s="22"/>
+      <c r="DR3" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="DS3" s="21"/>
+      <c r="DT3" s="22"/>
+      <c r="DU3" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="DV3" s="21"/>
+      <c r="DW3" s="22"/>
+      <c r="DX3" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="DY3" s="21"/>
+      <c r="DZ3" s="22"/>
+      <c r="EA3" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="EB3" s="21"/>
+      <c r="EC3" s="22"/>
+      <c r="ED3" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="EE3" s="21"/>
+      <c r="EF3" s="22"/>
+      <c r="EG3" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="EH3" s="21"/>
+      <c r="EI3" s="22"/>
+      <c r="EJ3" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="EK3" s="21"/>
+      <c r="EL3" s="22"/>
+      <c r="EM3" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="EN3" s="21"/>
+      <c r="EO3" s="22"/>
+      <c r="EP3" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="EQ3" s="21"/>
+      <c r="ER3" s="22"/>
+      <c r="ES3" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="ET3" s="21"/>
+      <c r="EU3" s="22"/>
+      <c r="EV3" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="EW3" s="21"/>
+      <c r="EX3" s="22"/>
+      <c r="EY3" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="EZ3" s="21"/>
+      <c r="FA3" s="22"/>
+      <c r="FB3" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="FC3" s="21"/>
+      <c r="FD3" s="22"/>
+      <c r="FE3" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="FF3" s="21"/>
+      <c r="FG3" s="22"/>
+      <c r="FH3" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="FI3" s="21"/>
+      <c r="FJ3" s="22"/>
+      <c r="FK3" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="FL3" s="21"/>
+      <c r="FM3" s="22"/>
+      <c r="FN3" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="FO3" s="21"/>
+      <c r="FP3" s="22"/>
+      <c r="FQ3" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="FR3" s="21"/>
+      <c r="FS3" s="22"/>
+      <c r="FT3" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="FU3" s="21"/>
+      <c r="FV3" s="22"/>
+      <c r="FW3" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="FX3" s="21"/>
+      <c r="FY3" s="22"/>
+      <c r="FZ3" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="GA3" s="21"/>
+      <c r="GB3" s="22"/>
+      <c r="GC3" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="GD3" s="21"/>
+      <c r="GE3" s="22"/>
+      <c r="GF3" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="GG3" s="21"/>
+      <c r="GH3" s="22"/>
+      <c r="GI3" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="GJ3" s="21"/>
+      <c r="GK3" s="22"/>
+      <c r="GL3" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="GM3" s="21"/>
+      <c r="GN3" s="22"/>
+      <c r="GO3" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="GP3" s="21"/>
+      <c r="GQ3" s="22"/>
+      <c r="GR3" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="GS3" s="21"/>
+      <c r="GT3" s="22"/>
+      <c r="GU3" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="GV3" s="21"/>
+      <c r="GW3" s="22"/>
+      <c r="GX3" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="GY3" s="21"/>
+      <c r="GZ3" s="22"/>
+      <c r="HA3" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="HB3" s="21"/>
+      <c r="HC3" s="22"/>
+      <c r="HD3" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="HE3" s="21"/>
+      <c r="HF3" s="22"/>
+      <c r="HG3" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="GP1" s="18"/>
-      <c r="GQ1" s="18"/>
-      <c r="GR1" s="18"/>
-      <c r="GS1" s="18"/>
-      <c r="GT1" s="18"/>
-      <c r="GU1" s="18"/>
-      <c r="GV1" s="18"/>
-      <c r="GW1" s="18"/>
-      <c r="GX1" s="18"/>
-      <c r="GY1" s="18"/>
-      <c r="GZ1" s="18"/>
-      <c r="HA1" s="18"/>
-      <c r="HB1" s="18"/>
-      <c r="HC1" s="18"/>
-      <c r="HD1" s="18"/>
-      <c r="HE1" s="18"/>
-      <c r="HF1" s="18"/>
-      <c r="HG1" s="18"/>
-      <c r="HH1" s="18"/>
-      <c r="HI1" s="18"/>
-      <c r="HJ1" s="18"/>
-      <c r="HK1" s="18"/>
-      <c r="HL1" s="18"/>
-      <c r="HM1" s="18"/>
-      <c r="HN1" s="18"/>
-      <c r="HO1" s="18"/>
-      <c r="HP1" s="18"/>
-      <c r="HQ1" s="18"/>
-      <c r="HR1" s="18"/>
-      <c r="HS1" s="18"/>
-      <c r="HT1" s="18"/>
-      <c r="HU1" s="18"/>
-      <c r="HV1" s="18"/>
-      <c r="HW1" s="18"/>
-      <c r="HX1" s="18"/>
-      <c r="HY1" s="18"/>
-      <c r="HZ1" s="18"/>
-      <c r="IA1" s="18"/>
-      <c r="IB1" s="18"/>
-      <c r="IC1" s="18"/>
-      <c r="ID1" s="18"/>
-      <c r="IE1" s="18"/>
-      <c r="IF1" s="18"/>
-      <c r="IG1" s="18"/>
-      <c r="IH1" s="18"/>
-      <c r="II1" s="18"/>
-      <c r="IJ1" s="18"/>
-      <c r="IK1" s="18"/>
-      <c r="IL1" s="18"/>
-      <c r="IM1" s="18"/>
-      <c r="IN1" s="18"/>
-      <c r="IO1" s="18"/>
-      <c r="IP1" s="18"/>
-      <c r="IQ1" s="18"/>
-      <c r="IR1" s="18"/>
-      <c r="IS1" s="18"/>
-      <c r="IT1" s="18"/>
-      <c r="IU1" s="18"/>
-      <c r="IV1" s="18"/>
-      <c r="IW1" s="18"/>
-      <c r="IX1" s="18"/>
-      <c r="IY1" s="18"/>
-      <c r="IZ1" s="18"/>
-      <c r="JA1" s="18"/>
-      <c r="JB1" s="18"/>
-      <c r="JC1" s="18"/>
-      <c r="JD1" s="18"/>
-      <c r="JE1" s="18"/>
-      <c r="JF1" s="18" t="s">
+      <c r="HH3" s="21"/>
+      <c r="HI3" s="22"/>
+      <c r="HJ3" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="HK3" s="21"/>
+      <c r="HL3" s="22"/>
+      <c r="HM3" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="HN3" s="21"/>
+      <c r="HO3" s="22"/>
+      <c r="HP3" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="HQ3" s="21"/>
+      <c r="HR3" s="22"/>
+      <c r="HS3" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="HT3" s="21"/>
+      <c r="HU3" s="22"/>
+      <c r="HV3" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="HW3" s="21"/>
+      <c r="HX3" s="22"/>
+      <c r="HY3" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="HZ3" s="21"/>
+      <c r="IA3" s="22"/>
+      <c r="IB3" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="IC3" s="21"/>
+      <c r="ID3" s="22"/>
+      <c r="IE3" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="IF3" s="21"/>
+      <c r="IG3" s="22"/>
+      <c r="IH3" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="II3" s="21"/>
+      <c r="IJ3" s="22"/>
+      <c r="IK3" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="IL3" s="21"/>
+      <c r="IM3" s="22"/>
+      <c r="IN3" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="IO3" s="21"/>
+      <c r="IP3" s="22"/>
+      <c r="IQ3" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="IR3" s="21"/>
+      <c r="IS3" s="22"/>
+      <c r="IT3" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="IU3" s="21"/>
+      <c r="IV3" s="22"/>
+      <c r="IW3" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="IX3" s="21"/>
+      <c r="IY3" s="22"/>
+      <c r="IZ3" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="JA3" s="21"/>
+      <c r="JB3" s="22"/>
+      <c r="JC3" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="JD3" s="21"/>
+      <c r="JE3" s="22"/>
+      <c r="JF3" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="JG3" s="21"/>
+      <c r="JH3" s="22"/>
+      <c r="JI3" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="JJ3" s="21"/>
+      <c r="JK3" s="22"/>
+      <c r="JL3" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="JM3" s="21"/>
+      <c r="JN3" s="22"/>
+      <c r="JO3" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="JP3" s="21"/>
+      <c r="JQ3" s="22"/>
+      <c r="JR3" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="JS3" s="21"/>
+      <c r="JT3" s="22"/>
+      <c r="JU3" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="JV3" s="21"/>
+      <c r="JW3" s="22"/>
+      <c r="JX3" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="JG1" s="18"/>
-      <c r="JH1" s="18"/>
-      <c r="JI1" s="18"/>
-      <c r="JJ1" s="18"/>
-      <c r="JK1" s="18"/>
-      <c r="JL1" s="18"/>
-      <c r="JM1" s="18"/>
-      <c r="JN1" s="18"/>
-      <c r="JO1" s="18"/>
-      <c r="JP1" s="18"/>
-      <c r="JQ1" s="18"/>
-      <c r="JR1" s="18"/>
-      <c r="JS1" s="18"/>
-      <c r="JT1" s="18"/>
-      <c r="JU1" s="18"/>
-      <c r="JV1" s="18"/>
-      <c r="JW1" s="18"/>
-      <c r="JX1" s="18"/>
-      <c r="JY1" s="18"/>
-      <c r="JZ1" s="18"/>
-      <c r="KA1" s="18"/>
-      <c r="KB1" s="18"/>
-      <c r="KC1" s="18"/>
-      <c r="KD1" s="18"/>
-      <c r="KE1" s="18"/>
-      <c r="KF1" s="18"/>
-      <c r="KG1" s="18"/>
-      <c r="KH1" s="18"/>
-      <c r="KI1" s="18"/>
-      <c r="KJ1" s="18"/>
-      <c r="KK1" s="18"/>
-      <c r="KL1" s="18"/>
-      <c r="KM1" s="18"/>
-      <c r="KN1" s="18"/>
-      <c r="KO1" s="18"/>
-      <c r="KP1" s="18"/>
-      <c r="KQ1" s="18"/>
-      <c r="KR1" s="18"/>
-      <c r="KS1" s="18"/>
-      <c r="KT1" s="18"/>
-      <c r="KU1" s="18"/>
-      <c r="KV1" s="18"/>
-      <c r="KW1" s="18"/>
-      <c r="KX1" s="18"/>
-      <c r="KY1" s="18"/>
-      <c r="KZ1" s="18"/>
-      <c r="LA1" s="18"/>
-      <c r="LB1" s="18"/>
-      <c r="LC1" s="18"/>
-      <c r="LD1" s="18"/>
-      <c r="LE1" s="18"/>
-      <c r="LF1" s="18"/>
-      <c r="LG1" s="18"/>
-      <c r="LH1" s="18"/>
-      <c r="LI1" s="18"/>
-      <c r="LJ1" s="18"/>
-      <c r="LK1" s="18"/>
-      <c r="LL1" s="18"/>
-      <c r="LM1" s="18"/>
-      <c r="LN1" s="18"/>
-      <c r="LO1" s="18"/>
-      <c r="LP1" s="18"/>
-      <c r="LQ1" s="18"/>
-      <c r="LR1" s="18"/>
-      <c r="LS1" s="18"/>
-      <c r="LT1" s="18"/>
-      <c r="LU1" s="18"/>
-      <c r="LV1" s="18"/>
-      <c r="LW1" s="18"/>
-      <c r="LX1" s="18"/>
-      <c r="LY1" s="18"/>
-      <c r="LZ1" s="18"/>
-      <c r="MA1" s="18"/>
-      <c r="MB1" s="18"/>
-      <c r="MC1" s="18"/>
-      <c r="MD1" s="18"/>
-      <c r="ME1" s="18"/>
-      <c r="MF1" s="18"/>
-      <c r="MG1" s="18"/>
-      <c r="MH1" s="18"/>
-      <c r="MI1" s="18"/>
-      <c r="MJ1" s="18"/>
-      <c r="MK1" s="18"/>
-      <c r="ML1" s="18"/>
-      <c r="MM1" s="18"/>
-      <c r="MN1" s="18"/>
-      <c r="MO1" s="18"/>
-      <c r="MP1" s="18"/>
-      <c r="MQ1" s="18"/>
-      <c r="MR1" s="18"/>
-      <c r="MS1" s="18"/>
-      <c r="MT1" s="18"/>
-      <c r="MU1" s="18"/>
-      <c r="MV1" s="18"/>
-      <c r="MW1" s="18"/>
-      <c r="MX1" s="18"/>
-      <c r="MY1" s="18"/>
-      <c r="MZ1" s="18"/>
-      <c r="NA1" s="18"/>
-      <c r="NB1" s="18"/>
-      <c r="NC1" s="18"/>
-      <c r="ND1" s="18"/>
-      <c r="NE1" s="18"/>
-      <c r="NF1" s="18"/>
-      <c r="NG1" s="18"/>
-      <c r="NH1" s="18"/>
-      <c r="NI1" s="18"/>
-      <c r="NJ1" s="18"/>
-      <c r="NK1" s="18"/>
-      <c r="NL1" s="18"/>
-      <c r="NM1" s="18"/>
-      <c r="NN1" s="18"/>
-      <c r="NO1" s="18"/>
-      <c r="NP1" s="18"/>
-      <c r="NQ1" s="18"/>
-      <c r="NR1" s="18"/>
-      <c r="NS1" s="18"/>
-      <c r="NT1" s="18"/>
-      <c r="NU1" s="18"/>
-      <c r="NV1" s="18" t="s">
+      <c r="JY3" s="21"/>
+      <c r="JZ3" s="22"/>
+      <c r="KA3" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="KB3" s="21"/>
+      <c r="KC3" s="22"/>
+      <c r="KD3" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="KE3" s="21"/>
+      <c r="KF3" s="22"/>
+      <c r="KG3" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="KH3" s="21"/>
+      <c r="KI3" s="22"/>
+      <c r="KJ3" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="KK3" s="21"/>
+      <c r="KL3" s="22"/>
+      <c r="KM3" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="KN3" s="21"/>
+      <c r="KO3" s="22"/>
+      <c r="KP3" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="KQ3" s="21"/>
+      <c r="KR3" s="22"/>
+      <c r="KS3" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="KT3" s="21"/>
+      <c r="KU3" s="22"/>
+      <c r="KV3" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="KW3" s="21"/>
+      <c r="KX3" s="22"/>
+      <c r="KY3" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="KZ3" s="21"/>
+      <c r="LA3" s="22"/>
+      <c r="LB3" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="LC3" s="21"/>
+      <c r="LD3" s="22"/>
+      <c r="LE3" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="LF3" s="21"/>
+      <c r="LG3" s="22"/>
+      <c r="LH3" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="LI3" s="21"/>
+      <c r="LJ3" s="22"/>
+      <c r="LK3" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="LL3" s="21"/>
+      <c r="LM3" s="22"/>
+      <c r="LN3" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="LO3" s="21"/>
+      <c r="LP3" s="22"/>
+      <c r="LQ3" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="LR3" s="21"/>
+      <c r="LS3" s="22"/>
+      <c r="LT3" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="LU3" s="21"/>
+      <c r="LV3" s="22"/>
+      <c r="LW3" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="LX3" s="21"/>
+      <c r="LY3" s="22"/>
+      <c r="LZ3" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="MA3" s="21"/>
+      <c r="MB3" s="22"/>
+      <c r="MC3" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="MD3" s="21"/>
+      <c r="ME3" s="22"/>
+      <c r="MF3" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="MG3" s="21"/>
+      <c r="MH3" s="22"/>
+      <c r="MI3" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="MJ3" s="21"/>
+      <c r="MK3" s="22"/>
+      <c r="ML3" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="MM3" s="21"/>
+      <c r="MN3" s="22"/>
+      <c r="MO3" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="MP3" s="21"/>
+      <c r="MQ3" s="22"/>
+      <c r="MR3" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="MS3" s="21"/>
+      <c r="MT3" s="22"/>
+      <c r="MU3" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="MV3" s="21"/>
+      <c r="MW3" s="22"/>
+      <c r="MX3" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="MY3" s="21"/>
+      <c r="MZ3" s="22"/>
+      <c r="NA3" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="NB3" s="21"/>
+      <c r="NC3" s="22"/>
+      <c r="ND3" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="NE3" s="21"/>
+      <c r="NF3" s="22"/>
+      <c r="NG3" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="NH3" s="21"/>
+      <c r="NI3" s="22"/>
+      <c r="NJ3" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="NK3" s="21"/>
+      <c r="NL3" s="22"/>
+      <c r="NM3" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="NN3" s="21"/>
+      <c r="NO3" s="22"/>
+      <c r="NP3" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="NQ3" s="21"/>
+      <c r="NR3" s="22"/>
+      <c r="NS3" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="NT3" s="21"/>
+      <c r="NU3" s="22"/>
+      <c r="NV3" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="NW3" s="21"/>
+      <c r="NX3" s="22"/>
+      <c r="NY3" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="NZ3" s="21"/>
+      <c r="OA3" s="22"/>
+      <c r="OB3" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="OC3" s="21"/>
+      <c r="OD3" s="22"/>
+      <c r="OE3" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="OF3" s="21"/>
+      <c r="OG3" s="22"/>
+      <c r="OH3" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="OI3" s="21"/>
+      <c r="OJ3" s="22"/>
+      <c r="OK3" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="OL3" s="21"/>
+      <c r="OM3" s="22"/>
+      <c r="ON3" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="OO3" s="21"/>
+      <c r="OP3" s="22"/>
+      <c r="OQ3" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="OR3" s="21"/>
+      <c r="OS3" s="22"/>
+      <c r="OT3" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="NW1" s="18"/>
-      <c r="NX1" s="18"/>
-      <c r="NY1" s="18"/>
-      <c r="NZ1" s="18"/>
-      <c r="OA1" s="18"/>
-      <c r="OB1" s="18"/>
-      <c r="OC1" s="18"/>
-      <c r="OD1" s="18"/>
-      <c r="OE1" s="18"/>
-      <c r="OF1" s="18"/>
-      <c r="OG1" s="18"/>
-      <c r="OH1" s="18"/>
-      <c r="OI1" s="18"/>
-      <c r="OJ1" s="18"/>
-      <c r="OK1" s="18"/>
-      <c r="OL1" s="18"/>
-      <c r="OM1" s="18"/>
-      <c r="ON1" s="18"/>
-      <c r="OO1" s="18"/>
-      <c r="OP1" s="18"/>
-      <c r="OQ1" s="18"/>
-      <c r="OR1" s="18"/>
-      <c r="OS1" s="18"/>
-      <c r="OT1" s="18"/>
-      <c r="OU1" s="18"/>
-      <c r="OV1" s="18"/>
-      <c r="OW1" s="18"/>
-      <c r="OX1" s="18"/>
-      <c r="OY1" s="18"/>
-      <c r="OZ1" s="18"/>
-      <c r="PA1" s="18"/>
-      <c r="PB1" s="18"/>
-      <c r="PC1" s="18"/>
-      <c r="PD1" s="18"/>
-      <c r="PE1" s="18"/>
-      <c r="PF1" s="18"/>
-      <c r="PG1" s="18"/>
-      <c r="PH1" s="18"/>
-      <c r="PI1" s="18"/>
-      <c r="PJ1" s="18"/>
-      <c r="PK1" s="18"/>
-      <c r="PL1" s="18"/>
-      <c r="PM1" s="18"/>
-      <c r="PN1" s="18"/>
-      <c r="PO1" s="18"/>
-      <c r="PP1" s="18"/>
-      <c r="PQ1" s="18"/>
-      <c r="PR1" s="18"/>
-      <c r="PS1" s="18"/>
-      <c r="PT1" s="18"/>
-      <c r="PU1" s="18"/>
-      <c r="PV1" s="18"/>
-      <c r="PW1" s="18"/>
-      <c r="PX1" s="18"/>
-      <c r="PY1" s="18"/>
-      <c r="PZ1" s="18"/>
-      <c r="QA1" s="18"/>
-      <c r="QB1" s="18"/>
-      <c r="QC1" s="18"/>
-      <c r="QD1" s="18"/>
-      <c r="QE1" s="18"/>
-      <c r="QF1" s="18"/>
-      <c r="QG1" s="18"/>
-      <c r="QH1" s="18"/>
-      <c r="QI1" s="18"/>
-      <c r="QJ1" s="18"/>
-      <c r="QK1" s="18"/>
-      <c r="QL1" s="18"/>
-      <c r="QM1" s="18"/>
-      <c r="QN1" s="18"/>
-      <c r="QO1" s="18"/>
-      <c r="QP1" s="18"/>
-      <c r="QQ1" s="18"/>
-      <c r="QR1" s="18"/>
-      <c r="QS1" s="18"/>
-      <c r="QT1" s="18"/>
-      <c r="QU1" s="18"/>
-      <c r="QV1" s="18" t="s">
+      <c r="OU3" s="21"/>
+      <c r="OV3" s="22"/>
+      <c r="OW3" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="OX3" s="21"/>
+      <c r="OY3" s="22"/>
+      <c r="OZ3" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="PA3" s="21"/>
+      <c r="PB3" s="22"/>
+      <c r="PC3" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="PD3" s="21"/>
+      <c r="PE3" s="22"/>
+      <c r="PF3" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="PG3" s="21"/>
+      <c r="PH3" s="22"/>
+      <c r="PI3" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="PJ3" s="21"/>
+      <c r="PK3" s="22"/>
+      <c r="PL3" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="PM3" s="21"/>
+      <c r="PN3" s="22"/>
+      <c r="PO3" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="PP3" s="21"/>
+      <c r="PQ3" s="22"/>
+      <c r="PR3" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="PS3" s="21"/>
+      <c r="PT3" s="22"/>
+      <c r="PU3" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="PV3" s="21"/>
+      <c r="PW3" s="22"/>
+      <c r="PX3" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="PY3" s="21"/>
+      <c r="PZ3" s="22"/>
+      <c r="QA3" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="QB3" s="21"/>
+      <c r="QC3" s="22"/>
+      <c r="QD3" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="QE3" s="21"/>
+      <c r="QF3" s="22"/>
+      <c r="QG3" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="QH3" s="21"/>
+      <c r="QI3" s="22"/>
+      <c r="QJ3" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="QK3" s="21"/>
+      <c r="QL3" s="22"/>
+      <c r="QM3" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="QN3" s="21"/>
+      <c r="QO3" s="22"/>
+      <c r="QP3" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="QQ3" s="21"/>
+      <c r="QR3" s="22"/>
+      <c r="QS3" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="QT3" s="21"/>
+      <c r="QU3" s="22"/>
+      <c r="QV3" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="QW3" s="21"/>
+      <c r="QX3" s="22"/>
+      <c r="QY3" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="QZ3" s="21"/>
+      <c r="RA3" s="22"/>
+      <c r="RB3" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="RC3" s="21"/>
+      <c r="RD3" s="22"/>
+      <c r="RE3" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="RF3" s="21"/>
+      <c r="RG3" s="22"/>
+      <c r="RH3" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="RI3" s="21"/>
+      <c r="RJ3" s="22"/>
+      <c r="RK3" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="RL3" s="21"/>
+      <c r="RM3" s="22"/>
+      <c r="RN3" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="QW1" s="18"/>
-      <c r="QX1" s="18"/>
-      <c r="QY1" s="18"/>
-      <c r="QZ1" s="18"/>
-      <c r="RA1" s="18"/>
-      <c r="RB1" s="18"/>
-      <c r="RC1" s="18"/>
-      <c r="RD1" s="18"/>
-      <c r="RE1" s="18"/>
-      <c r="RF1" s="18"/>
-      <c r="RG1" s="18"/>
-      <c r="RH1" s="18"/>
-      <c r="RI1" s="18"/>
-      <c r="RJ1" s="18"/>
-      <c r="RK1" s="18"/>
-      <c r="RL1" s="18"/>
-      <c r="RM1" s="18"/>
-      <c r="RN1" s="18"/>
-      <c r="RO1" s="18"/>
-      <c r="RP1" s="18"/>
-      <c r="RQ1" s="18"/>
-      <c r="RR1" s="18"/>
-      <c r="RS1" s="18"/>
-      <c r="RT1" s="18"/>
-      <c r="RU1" s="18"/>
-      <c r="RV1" s="18"/>
-      <c r="RW1" s="18"/>
-      <c r="RX1" s="18"/>
-      <c r="RY1" s="18"/>
-      <c r="RZ1" s="18"/>
-      <c r="SA1" s="18"/>
-      <c r="SB1" s="18"/>
-      <c r="SC1" s="18"/>
-      <c r="SD1" s="18"/>
-      <c r="SE1" s="18"/>
-      <c r="SF1" s="18"/>
-      <c r="SG1" s="18"/>
-      <c r="SH1" s="18"/>
-      <c r="SI1" s="18"/>
-      <c r="SJ1" s="18"/>
-      <c r="SK1" s="18"/>
-      <c r="SL1" s="18"/>
-      <c r="SM1" s="18"/>
-      <c r="SN1" s="18"/>
-      <c r="SO1" s="18"/>
-      <c r="SP1" s="18"/>
-      <c r="SQ1" s="18"/>
-      <c r="SR1" s="18"/>
-      <c r="SS1" s="18"/>
-      <c r="ST1" s="18"/>
-      <c r="SU1" s="18"/>
-      <c r="SV1" s="18"/>
-      <c r="SW1" s="18"/>
-      <c r="SX1" s="18"/>
-      <c r="SY1" s="18"/>
-      <c r="SZ1" s="18"/>
-      <c r="TA1" s="18"/>
-      <c r="TB1" s="18"/>
-      <c r="TC1" s="18"/>
-      <c r="TD1" s="18"/>
-      <c r="TE1" s="18"/>
-      <c r="TF1" s="18"/>
-      <c r="TG1" s="18"/>
-      <c r="TH1" s="18"/>
-      <c r="TI1" s="18"/>
-    </row>
-    <row r="2" spans="1:529" s="12" customFormat="1" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
-        <v>363</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="O2" s="14"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="U2" s="14"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="15"/>
-      <c r="AL2" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="AM2" s="14"/>
-      <c r="AN2" s="15"/>
-      <c r="AO2" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="15"/>
-      <c r="AU2" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV2" s="14"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="AY2" s="14"/>
-      <c r="AZ2" s="15"/>
-      <c r="BA2" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="BB2" s="14"/>
-      <c r="BC2" s="15"/>
-      <c r="BD2" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE2" s="14"/>
-      <c r="BF2" s="15"/>
-      <c r="BG2" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="BH2" s="14"/>
-      <c r="BI2" s="15"/>
-      <c r="BJ2" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="BK2" s="14"/>
-      <c r="BL2" s="15"/>
-      <c r="BM2" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="BN2" s="14"/>
-      <c r="BO2" s="15"/>
-      <c r="BP2" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="BQ2" s="14"/>
-      <c r="BR2" s="15"/>
-      <c r="BS2" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="BT2" s="14"/>
-      <c r="BU2" s="15"/>
-      <c r="BV2" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="BW2" s="14"/>
-      <c r="BX2" s="15"/>
-      <c r="BY2" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="BZ2" s="14"/>
-      <c r="CA2" s="15"/>
-      <c r="CB2" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="CC2" s="14"/>
-      <c r="CD2" s="15"/>
-      <c r="CE2" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="CF2" s="14"/>
-      <c r="CG2" s="15"/>
-      <c r="CH2" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="CI2" s="14"/>
-      <c r="CJ2" s="15"/>
-      <c r="CK2" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="CL2" s="14"/>
-      <c r="CM2" s="15"/>
-      <c r="CN2" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="CO2" s="14"/>
-      <c r="CP2" s="15"/>
-      <c r="CQ2" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="CR2" s="14"/>
-      <c r="CS2" s="15"/>
-      <c r="CT2" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="CU2" s="14"/>
-      <c r="CV2" s="15"/>
-      <c r="CW2" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="CX2" s="14"/>
-      <c r="CY2" s="15"/>
-      <c r="CZ2" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="DA2" s="14"/>
-      <c r="DB2" s="15"/>
-      <c r="DC2" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="DD2" s="14"/>
-      <c r="DE2" s="15"/>
-      <c r="DF2" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="DG2" s="14"/>
-      <c r="DH2" s="15"/>
-      <c r="DI2" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="DJ2" s="14"/>
-      <c r="DK2" s="15"/>
-      <c r="DL2" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="DM2" s="14"/>
-      <c r="DN2" s="15"/>
-      <c r="DO2" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="DP2" s="14"/>
-      <c r="DQ2" s="15"/>
-      <c r="DR2" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="DS2" s="14"/>
-      <c r="DT2" s="15"/>
-      <c r="DU2" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="DV2" s="14"/>
-      <c r="DW2" s="15"/>
-      <c r="DX2" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="DY2" s="14"/>
-      <c r="DZ2" s="15"/>
-      <c r="EA2" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="EB2" s="14"/>
-      <c r="EC2" s="15"/>
-      <c r="ED2" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="EE2" s="14"/>
-      <c r="EF2" s="15"/>
-      <c r="EG2" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="EH2" s="14"/>
-      <c r="EI2" s="15"/>
-      <c r="EJ2" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="EK2" s="14"/>
-      <c r="EL2" s="15"/>
-      <c r="EM2" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="EN2" s="14"/>
-      <c r="EO2" s="15"/>
-      <c r="EP2" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="EQ2" s="14"/>
-      <c r="ER2" s="15"/>
-      <c r="ES2" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="ET2" s="14"/>
-      <c r="EU2" s="15"/>
-      <c r="EV2" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="EW2" s="14"/>
-      <c r="EX2" s="15"/>
-      <c r="EY2" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="EZ2" s="14"/>
-      <c r="FA2" s="15"/>
-      <c r="FB2" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="FC2" s="14"/>
-      <c r="FD2" s="15"/>
-      <c r="FE2" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="FF2" s="14"/>
-      <c r="FG2" s="15"/>
-      <c r="FH2" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="FI2" s="14"/>
-      <c r="FJ2" s="15"/>
-      <c r="FK2" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="FL2" s="14"/>
-      <c r="FM2" s="15"/>
-      <c r="FN2" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="FO2" s="14"/>
-      <c r="FP2" s="15"/>
-      <c r="FQ2" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="FR2" s="14"/>
-      <c r="FS2" s="15"/>
-      <c r="FT2" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="FU2" s="14"/>
-      <c r="FV2" s="15"/>
-      <c r="FW2" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="FX2" s="14"/>
-      <c r="FY2" s="15"/>
-      <c r="FZ2" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="GA2" s="14"/>
-      <c r="GB2" s="15"/>
-      <c r="GC2" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="GD2" s="14"/>
-      <c r="GE2" s="15"/>
-      <c r="GF2" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="GG2" s="14"/>
-      <c r="GH2" s="15"/>
-      <c r="GI2" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="GJ2" s="14"/>
-      <c r="GK2" s="15"/>
-      <c r="GL2" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="GM2" s="14"/>
-      <c r="GN2" s="15"/>
-      <c r="GO2" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="GP2" s="14"/>
-      <c r="GQ2" s="15"/>
-      <c r="GR2" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="GS2" s="14"/>
-      <c r="GT2" s="15"/>
-      <c r="GU2" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="GV2" s="14"/>
-      <c r="GW2" s="15"/>
-      <c r="GX2" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="GY2" s="14"/>
-      <c r="GZ2" s="15"/>
-      <c r="HA2" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="HB2" s="14"/>
-      <c r="HC2" s="15"/>
-      <c r="HD2" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="HE2" s="14"/>
-      <c r="HF2" s="15"/>
-      <c r="HG2" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="HH2" s="14"/>
-      <c r="HI2" s="15"/>
-      <c r="HJ2" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="HK2" s="14"/>
-      <c r="HL2" s="15"/>
-      <c r="HM2" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="HN2" s="14"/>
-      <c r="HO2" s="15"/>
-      <c r="HP2" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="HQ2" s="14"/>
-      <c r="HR2" s="15"/>
-      <c r="HS2" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="HT2" s="14"/>
-      <c r="HU2" s="15"/>
-      <c r="HV2" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="HW2" s="14"/>
-      <c r="HX2" s="15"/>
-      <c r="HY2" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="HZ2" s="14"/>
-      <c r="IA2" s="15"/>
-      <c r="IB2" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="IC2" s="14"/>
-      <c r="ID2" s="15"/>
-      <c r="IE2" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="IF2" s="14"/>
-      <c r="IG2" s="15"/>
-      <c r="IH2" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="II2" s="14"/>
-      <c r="IJ2" s="15"/>
-      <c r="IK2" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="IL2" s="14"/>
-      <c r="IM2" s="15"/>
-      <c r="IN2" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="IO2" s="14"/>
-      <c r="IP2" s="15"/>
-      <c r="IQ2" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="IR2" s="14"/>
-      <c r="IS2" s="15"/>
-      <c r="IT2" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="IU2" s="14"/>
-      <c r="IV2" s="15"/>
-      <c r="IW2" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="IX2" s="14"/>
-      <c r="IY2" s="15"/>
-      <c r="IZ2" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="JA2" s="14"/>
-      <c r="JB2" s="15"/>
-      <c r="JC2" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="JD2" s="14"/>
-      <c r="JE2" s="15"/>
-      <c r="JF2" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="JG2" s="14"/>
-      <c r="JH2" s="15"/>
-      <c r="JI2" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="JJ2" s="14"/>
-      <c r="JK2" s="15"/>
-      <c r="JL2" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="JM2" s="14"/>
-      <c r="JN2" s="15"/>
-      <c r="JO2" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="JP2" s="14"/>
-      <c r="JQ2" s="15"/>
-      <c r="JR2" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="JS2" s="14"/>
-      <c r="JT2" s="15"/>
-      <c r="JU2" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="JV2" s="14"/>
-      <c r="JW2" s="15"/>
-      <c r="JX2" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="JY2" s="14"/>
-      <c r="JZ2" s="15"/>
-      <c r="KA2" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="KB2" s="14"/>
-      <c r="KC2" s="15"/>
-      <c r="KD2" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="KE2" s="14"/>
-      <c r="KF2" s="15"/>
-      <c r="KG2" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="KH2" s="14"/>
-      <c r="KI2" s="15"/>
-      <c r="KJ2" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="KK2" s="14"/>
-      <c r="KL2" s="15"/>
-      <c r="KM2" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="KN2" s="14"/>
-      <c r="KO2" s="15"/>
-      <c r="KP2" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="KQ2" s="14"/>
-      <c r="KR2" s="15"/>
-      <c r="KS2" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="KT2" s="14"/>
-      <c r="KU2" s="15"/>
-      <c r="KV2" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="KW2" s="14"/>
-      <c r="KX2" s="15"/>
-      <c r="KY2" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="KZ2" s="14"/>
-      <c r="LA2" s="15"/>
-      <c r="LB2" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="LC2" s="14"/>
-      <c r="LD2" s="15"/>
-      <c r="LE2" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="LF2" s="14"/>
-      <c r="LG2" s="15"/>
-      <c r="LH2" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="LI2" s="14"/>
-      <c r="LJ2" s="15"/>
-      <c r="LK2" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="LL2" s="14"/>
-      <c r="LM2" s="15"/>
-      <c r="LN2" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="LO2" s="14"/>
-      <c r="LP2" s="15"/>
-      <c r="LQ2" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="LR2" s="14"/>
-      <c r="LS2" s="15"/>
-      <c r="LT2" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="LU2" s="14"/>
-      <c r="LV2" s="15"/>
-      <c r="LW2" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="LX2" s="14"/>
-      <c r="LY2" s="15"/>
-      <c r="LZ2" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="MA2" s="14"/>
-      <c r="MB2" s="15"/>
-      <c r="MC2" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="MD2" s="14"/>
-      <c r="ME2" s="15"/>
-      <c r="MF2" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="MG2" s="14"/>
-      <c r="MH2" s="15"/>
-      <c r="MI2" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="MJ2" s="14"/>
-      <c r="MK2" s="15"/>
-      <c r="ML2" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="MM2" s="14"/>
-      <c r="MN2" s="15"/>
-      <c r="MO2" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="MP2" s="14"/>
-      <c r="MQ2" s="15"/>
-      <c r="MR2" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="MS2" s="14"/>
-      <c r="MT2" s="15"/>
-      <c r="MU2" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="MV2" s="14"/>
-      <c r="MW2" s="15"/>
-      <c r="MX2" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="MY2" s="14"/>
-      <c r="MZ2" s="15"/>
-      <c r="NA2" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="NB2" s="14"/>
-      <c r="NC2" s="15"/>
-      <c r="ND2" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="NE2" s="14"/>
-      <c r="NF2" s="15"/>
-      <c r="NG2" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="NH2" s="14"/>
-      <c r="NI2" s="15"/>
-      <c r="NJ2" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="NK2" s="14"/>
-      <c r="NL2" s="15"/>
-      <c r="NM2" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="NN2" s="14"/>
-      <c r="NO2" s="15"/>
-      <c r="NP2" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="NQ2" s="14"/>
-      <c r="NR2" s="15"/>
-      <c r="NS2" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="NT2" s="14"/>
-      <c r="NU2" s="15"/>
-      <c r="NV2" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="NW2" s="14"/>
-      <c r="NX2" s="15"/>
-      <c r="NY2" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="NZ2" s="14"/>
-      <c r="OA2" s="15"/>
-      <c r="OB2" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="OC2" s="14"/>
-      <c r="OD2" s="15"/>
-      <c r="OE2" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="OF2" s="14"/>
-      <c r="OG2" s="15"/>
-      <c r="OH2" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="OI2" s="14"/>
-      <c r="OJ2" s="15"/>
-      <c r="OK2" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="OL2" s="14"/>
-      <c r="OM2" s="15"/>
-      <c r="ON2" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="OO2" s="14"/>
-      <c r="OP2" s="15"/>
-      <c r="OQ2" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="OR2" s="14"/>
-      <c r="OS2" s="15"/>
-      <c r="OT2" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="OU2" s="14"/>
-      <c r="OV2" s="15"/>
-      <c r="OW2" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="OX2" s="14"/>
-      <c r="OY2" s="15"/>
-      <c r="OZ2" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="PA2" s="14"/>
-      <c r="PB2" s="15"/>
-      <c r="PC2" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="PD2" s="14"/>
-      <c r="PE2" s="15"/>
-      <c r="PF2" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="PG2" s="14"/>
-      <c r="PH2" s="15"/>
-      <c r="PI2" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="PJ2" s="14"/>
-      <c r="PK2" s="15"/>
-      <c r="PL2" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="PM2" s="14"/>
-      <c r="PN2" s="15"/>
-      <c r="PO2" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="PP2" s="14"/>
-      <c r="PQ2" s="15"/>
-      <c r="PR2" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="PS2" s="14"/>
-      <c r="PT2" s="15"/>
-      <c r="PU2" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="PV2" s="14"/>
-      <c r="PW2" s="15"/>
-      <c r="PX2" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="PY2" s="14"/>
-      <c r="PZ2" s="15"/>
-      <c r="QA2" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="QB2" s="14"/>
-      <c r="QC2" s="15"/>
-      <c r="QD2" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="QE2" s="14"/>
-      <c r="QF2" s="15"/>
-      <c r="QG2" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="QH2" s="14"/>
-      <c r="QI2" s="15"/>
-      <c r="QJ2" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="QK2" s="14"/>
-      <c r="QL2" s="15"/>
-      <c r="QM2" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="QN2" s="14"/>
-      <c r="QO2" s="15"/>
-      <c r="QP2" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="QQ2" s="14"/>
-      <c r="QR2" s="15"/>
-      <c r="QS2" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="QT2" s="14"/>
-      <c r="QU2" s="15"/>
-      <c r="QV2" s="13" t="s">
+      <c r="RO3" s="21"/>
+      <c r="RP3" s="22"/>
+      <c r="RQ3" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="QW2" s="14"/>
-      <c r="QX2" s="15"/>
-      <c r="QY2" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="QZ2" s="14"/>
-      <c r="RA2" s="15"/>
-      <c r="RB2" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="RC2" s="14"/>
-      <c r="RD2" s="15"/>
-      <c r="RE2" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="RF2" s="14"/>
-      <c r="RG2" s="15"/>
-      <c r="RH2" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="RI2" s="14"/>
-      <c r="RJ2" s="15"/>
-      <c r="RK2" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="RL2" s="14"/>
-      <c r="RM2" s="15"/>
-      <c r="RN2" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="RO2" s="14"/>
-      <c r="RP2" s="15"/>
-      <c r="RQ2" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="RR2" s="14"/>
-      <c r="RS2" s="15"/>
-      <c r="RT2" s="13" t="s">
+      <c r="RR3" s="21"/>
+      <c r="RS3" s="22"/>
+      <c r="RT3" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="RU3" s="21"/>
+      <c r="RV3" s="22"/>
+      <c r="RW3" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="RX3" s="21"/>
+      <c r="RY3" s="22"/>
+      <c r="RZ3" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="SA3" s="21"/>
+      <c r="SB3" s="22"/>
+      <c r="SC3" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="SD3" s="21"/>
+      <c r="SE3" s="22"/>
+      <c r="SF3" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="SG3" s="21"/>
+      <c r="SH3" s="22"/>
+      <c r="SI3" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="SJ3" s="21"/>
+      <c r="SK3" s="22"/>
+      <c r="SL3" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="SM3" s="21"/>
+      <c r="SN3" s="22"/>
+      <c r="SO3" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="RU2" s="14"/>
-      <c r="RV2" s="15"/>
-      <c r="RW2" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="RX2" s="14"/>
-      <c r="RY2" s="15"/>
-      <c r="RZ2" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="SA2" s="14"/>
-      <c r="SB2" s="15"/>
-      <c r="SC2" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="SD2" s="14"/>
-      <c r="SE2" s="15"/>
-      <c r="SF2" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="SG2" s="14"/>
-      <c r="SH2" s="15"/>
-      <c r="SI2" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="SJ2" s="14"/>
-      <c r="SK2" s="15"/>
-      <c r="SL2" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="SM2" s="14"/>
-      <c r="SN2" s="15"/>
-      <c r="SO2" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="SP2" s="14"/>
-      <c r="SQ2" s="15"/>
-      <c r="SR2" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="SS2" s="14"/>
-      <c r="ST2" s="15"/>
-      <c r="SU2" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="SV2" s="14"/>
-      <c r="SW2" s="15"/>
-      <c r="SX2" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="SY2" s="14"/>
-      <c r="SZ2" s="15"/>
-      <c r="TA2" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="TB2" s="14"/>
-      <c r="TC2" s="15"/>
-      <c r="TD2" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="TE2" s="14"/>
-      <c r="TF2" s="15"/>
-      <c r="TG2" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="TH2" s="14"/>
-      <c r="TI2" s="15"/>
-    </row>
-    <row r="3" spans="1:529" s="12" customFormat="1" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="U3" s="14"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="AM3" s="14"/>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="15"/>
-      <c r="AR3" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="15"/>
-      <c r="AU3" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="AV3" s="14"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="AY3" s="14"/>
-      <c r="AZ3" s="15"/>
-      <c r="BA3" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="BB3" s="14"/>
-      <c r="BC3" s="15"/>
-      <c r="BD3" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="BE3" s="14"/>
-      <c r="BF3" s="15"/>
-      <c r="BG3" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="BH3" s="14"/>
-      <c r="BI3" s="15"/>
-      <c r="BJ3" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="BK3" s="14"/>
-      <c r="BL3" s="15"/>
-      <c r="BM3" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="BN3" s="14"/>
-      <c r="BO3" s="15"/>
-      <c r="BP3" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="BQ3" s="14"/>
-      <c r="BR3" s="15"/>
-      <c r="BS3" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="BT3" s="14"/>
-      <c r="BU3" s="15"/>
-      <c r="BV3" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="BW3" s="14"/>
-      <c r="BX3" s="15"/>
-      <c r="BY3" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="BZ3" s="14"/>
-      <c r="CA3" s="15"/>
-      <c r="CB3" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="CC3" s="14"/>
-      <c r="CD3" s="15"/>
-      <c r="CE3" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="CF3" s="14"/>
-      <c r="CG3" s="15"/>
-      <c r="CH3" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="CI3" s="14"/>
-      <c r="CJ3" s="15"/>
-      <c r="CK3" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="CL3" s="14"/>
-      <c r="CM3" s="15"/>
-      <c r="CN3" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="CO3" s="14"/>
-      <c r="CP3" s="15"/>
-      <c r="CQ3" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="CR3" s="14"/>
-      <c r="CS3" s="15"/>
-      <c r="CT3" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="CU3" s="14"/>
-      <c r="CV3" s="15"/>
-      <c r="CW3" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="CX3" s="14"/>
-      <c r="CY3" s="15"/>
-      <c r="CZ3" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="DA3" s="14"/>
-      <c r="DB3" s="15"/>
-      <c r="DC3" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="DD3" s="14"/>
-      <c r="DE3" s="15"/>
-      <c r="DF3" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="DG3" s="14"/>
-      <c r="DH3" s="15"/>
-      <c r="DI3" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="DJ3" s="14"/>
-      <c r="DK3" s="15"/>
-      <c r="DL3" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="DM3" s="14"/>
-      <c r="DN3" s="15"/>
-      <c r="DO3" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="DP3" s="14"/>
-      <c r="DQ3" s="15"/>
-      <c r="DR3" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="DS3" s="14"/>
-      <c r="DT3" s="15"/>
-      <c r="DU3" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="DV3" s="14"/>
-      <c r="DW3" s="15"/>
-      <c r="DX3" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="DY3" s="14"/>
-      <c r="DZ3" s="15"/>
-      <c r="EA3" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="EB3" s="14"/>
-      <c r="EC3" s="15"/>
-      <c r="ED3" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="EE3" s="14"/>
-      <c r="EF3" s="15"/>
-      <c r="EG3" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="EH3" s="14"/>
-      <c r="EI3" s="15"/>
-      <c r="EJ3" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="EK3" s="14"/>
-      <c r="EL3" s="15"/>
-      <c r="EM3" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="EN3" s="14"/>
-      <c r="EO3" s="15"/>
-      <c r="EP3" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="EQ3" s="14"/>
-      <c r="ER3" s="15"/>
-      <c r="ES3" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="ET3" s="14"/>
-      <c r="EU3" s="15"/>
-      <c r="EV3" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="EW3" s="14"/>
-      <c r="EX3" s="15"/>
-      <c r="EY3" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="EZ3" s="14"/>
-      <c r="FA3" s="15"/>
-      <c r="FB3" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="FC3" s="14"/>
-      <c r="FD3" s="15"/>
-      <c r="FE3" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="FF3" s="14"/>
-      <c r="FG3" s="15"/>
-      <c r="FH3" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="FI3" s="14"/>
-      <c r="FJ3" s="15"/>
-      <c r="FK3" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="FL3" s="14"/>
-      <c r="FM3" s="15"/>
-      <c r="FN3" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="FO3" s="14"/>
-      <c r="FP3" s="15"/>
-      <c r="FQ3" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="FR3" s="14"/>
-      <c r="FS3" s="15"/>
-      <c r="FT3" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="FU3" s="14"/>
-      <c r="FV3" s="15"/>
-      <c r="FW3" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="FX3" s="14"/>
-      <c r="FY3" s="15"/>
-      <c r="FZ3" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="GA3" s="14"/>
-      <c r="GB3" s="15"/>
-      <c r="GC3" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="GD3" s="14"/>
-      <c r="GE3" s="15"/>
-      <c r="GF3" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="GG3" s="14"/>
-      <c r="GH3" s="15"/>
-      <c r="GI3" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="GJ3" s="14"/>
-      <c r="GK3" s="15"/>
-      <c r="GL3" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="GM3" s="14"/>
-      <c r="GN3" s="15"/>
-      <c r="GO3" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="GP3" s="14"/>
-      <c r="GQ3" s="15"/>
-      <c r="GR3" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="GS3" s="14"/>
-      <c r="GT3" s="15"/>
-      <c r="GU3" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="GV3" s="14"/>
-      <c r="GW3" s="15"/>
-      <c r="GX3" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="GY3" s="14"/>
-      <c r="GZ3" s="15"/>
-      <c r="HA3" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="HB3" s="14"/>
-      <c r="HC3" s="15"/>
-      <c r="HD3" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="HE3" s="14"/>
-      <c r="HF3" s="15"/>
-      <c r="HG3" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="HH3" s="14"/>
-      <c r="HI3" s="15"/>
-      <c r="HJ3" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="HK3" s="14"/>
-      <c r="HL3" s="15"/>
-      <c r="HM3" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="HN3" s="14"/>
-      <c r="HO3" s="15"/>
-      <c r="HP3" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="HQ3" s="14"/>
-      <c r="HR3" s="15"/>
-      <c r="HS3" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="HT3" s="14"/>
-      <c r="HU3" s="15"/>
-      <c r="HV3" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="HW3" s="14"/>
-      <c r="HX3" s="15"/>
-      <c r="HY3" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="HZ3" s="14"/>
-      <c r="IA3" s="15"/>
-      <c r="IB3" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="IC3" s="14"/>
-      <c r="ID3" s="15"/>
-      <c r="IE3" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="IF3" s="14"/>
-      <c r="IG3" s="15"/>
-      <c r="IH3" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="II3" s="14"/>
-      <c r="IJ3" s="15"/>
-      <c r="IK3" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="IL3" s="14"/>
-      <c r="IM3" s="15"/>
-      <c r="IN3" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="IO3" s="14"/>
-      <c r="IP3" s="15"/>
-      <c r="IQ3" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="IR3" s="14"/>
-      <c r="IS3" s="15"/>
-      <c r="IT3" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="IU3" s="14"/>
-      <c r="IV3" s="15"/>
-      <c r="IW3" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="IX3" s="14"/>
-      <c r="IY3" s="15"/>
-      <c r="IZ3" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="JA3" s="14"/>
-      <c r="JB3" s="15"/>
-      <c r="JC3" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="JD3" s="14"/>
-      <c r="JE3" s="15"/>
-      <c r="JF3" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="JG3" s="14"/>
-      <c r="JH3" s="15"/>
-      <c r="JI3" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="JJ3" s="14"/>
-      <c r="JK3" s="15"/>
-      <c r="JL3" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="JM3" s="14"/>
-      <c r="JN3" s="15"/>
-      <c r="JO3" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="JP3" s="14"/>
-      <c r="JQ3" s="15"/>
-      <c r="JR3" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="JS3" s="14"/>
-      <c r="JT3" s="15"/>
-      <c r="JU3" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="JV3" s="14"/>
-      <c r="JW3" s="15"/>
-      <c r="JX3" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="JY3" s="14"/>
-      <c r="JZ3" s="15"/>
-      <c r="KA3" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="KB3" s="14"/>
-      <c r="KC3" s="15"/>
-      <c r="KD3" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="KE3" s="14"/>
-      <c r="KF3" s="15"/>
-      <c r="KG3" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="KH3" s="14"/>
-      <c r="KI3" s="15"/>
-      <c r="KJ3" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="KK3" s="14"/>
-      <c r="KL3" s="15"/>
-      <c r="KM3" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="KN3" s="14"/>
-      <c r="KO3" s="15"/>
-      <c r="KP3" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="KQ3" s="14"/>
-      <c r="KR3" s="15"/>
-      <c r="KS3" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="KT3" s="14"/>
-      <c r="KU3" s="15"/>
-      <c r="KV3" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="KW3" s="14"/>
-      <c r="KX3" s="15"/>
-      <c r="KY3" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="KZ3" s="14"/>
-      <c r="LA3" s="15"/>
-      <c r="LB3" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="LC3" s="14"/>
-      <c r="LD3" s="15"/>
-      <c r="LE3" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="LF3" s="14"/>
-      <c r="LG3" s="15"/>
-      <c r="LH3" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="LI3" s="14"/>
-      <c r="LJ3" s="15"/>
-      <c r="LK3" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="LL3" s="14"/>
-      <c r="LM3" s="15"/>
-      <c r="LN3" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="LO3" s="14"/>
-      <c r="LP3" s="15"/>
-      <c r="LQ3" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="LR3" s="14"/>
-      <c r="LS3" s="15"/>
-      <c r="LT3" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="LU3" s="14"/>
-      <c r="LV3" s="15"/>
-      <c r="LW3" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="LX3" s="14"/>
-      <c r="LY3" s="15"/>
-      <c r="LZ3" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="MA3" s="14"/>
-      <c r="MB3" s="15"/>
-      <c r="MC3" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="MD3" s="14"/>
-      <c r="ME3" s="15"/>
-      <c r="MF3" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="MG3" s="14"/>
-      <c r="MH3" s="15"/>
-      <c r="MI3" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="MJ3" s="14"/>
-      <c r="MK3" s="15"/>
-      <c r="ML3" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="MM3" s="14"/>
-      <c r="MN3" s="15"/>
-      <c r="MO3" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="MP3" s="14"/>
-      <c r="MQ3" s="15"/>
-      <c r="MR3" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="MS3" s="14"/>
-      <c r="MT3" s="15"/>
-      <c r="MU3" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="MV3" s="14"/>
-      <c r="MW3" s="15"/>
-      <c r="MX3" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="MY3" s="14"/>
-      <c r="MZ3" s="15"/>
-      <c r="NA3" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="NB3" s="14"/>
-      <c r="NC3" s="15"/>
-      <c r="ND3" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="NE3" s="14"/>
-      <c r="NF3" s="15"/>
-      <c r="NG3" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="NH3" s="14"/>
-      <c r="NI3" s="15"/>
-      <c r="NJ3" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="NK3" s="14"/>
-      <c r="NL3" s="15"/>
-      <c r="NM3" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="NN3" s="14"/>
-      <c r="NO3" s="15"/>
-      <c r="NP3" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="NQ3" s="14"/>
-      <c r="NR3" s="15"/>
-      <c r="NS3" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="NT3" s="14"/>
-      <c r="NU3" s="15"/>
-      <c r="NV3" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="NW3" s="14"/>
-      <c r="NX3" s="15"/>
-      <c r="NY3" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="NZ3" s="14"/>
-      <c r="OA3" s="15"/>
-      <c r="OB3" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="OC3" s="14"/>
-      <c r="OD3" s="15"/>
-      <c r="OE3" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="OF3" s="14"/>
-      <c r="OG3" s="15"/>
-      <c r="OH3" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="OI3" s="14"/>
-      <c r="OJ3" s="15"/>
-      <c r="OK3" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="OL3" s="14"/>
-      <c r="OM3" s="15"/>
-      <c r="ON3" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="OO3" s="14"/>
-      <c r="OP3" s="15"/>
-      <c r="OQ3" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="OR3" s="14"/>
-      <c r="OS3" s="15"/>
-      <c r="OT3" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="OU3" s="14"/>
-      <c r="OV3" s="15"/>
-      <c r="OW3" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="OX3" s="14"/>
-      <c r="OY3" s="15"/>
-      <c r="OZ3" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="PA3" s="14"/>
-      <c r="PB3" s="15"/>
-      <c r="PC3" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="PD3" s="14"/>
-      <c r="PE3" s="15"/>
-      <c r="PF3" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="PG3" s="14"/>
-      <c r="PH3" s="15"/>
-      <c r="PI3" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="PJ3" s="14"/>
-      <c r="PK3" s="15"/>
-      <c r="PL3" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="PM3" s="14"/>
-      <c r="PN3" s="15"/>
-      <c r="PO3" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="PP3" s="14"/>
-      <c r="PQ3" s="15"/>
-      <c r="PR3" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="PS3" s="14"/>
-      <c r="PT3" s="15"/>
-      <c r="PU3" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="PV3" s="14"/>
-      <c r="PW3" s="15"/>
-      <c r="PX3" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="PY3" s="14"/>
-      <c r="PZ3" s="15"/>
-      <c r="QA3" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="QB3" s="14"/>
-      <c r="QC3" s="15"/>
-      <c r="QD3" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="QE3" s="14"/>
-      <c r="QF3" s="15"/>
-      <c r="QG3" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="QH3" s="14"/>
-      <c r="QI3" s="15"/>
-      <c r="QJ3" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="QK3" s="14"/>
-      <c r="QL3" s="15"/>
-      <c r="QM3" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="QN3" s="14"/>
-      <c r="QO3" s="15"/>
-      <c r="QP3" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="QQ3" s="14"/>
-      <c r="QR3" s="15"/>
-      <c r="QS3" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="QT3" s="14"/>
-      <c r="QU3" s="15"/>
-      <c r="QV3" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="QW3" s="14"/>
-      <c r="QX3" s="15"/>
-      <c r="QY3" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="QZ3" s="14"/>
-      <c r="RA3" s="15"/>
-      <c r="RB3" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="RC3" s="14"/>
-      <c r="RD3" s="15"/>
-      <c r="RE3" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="RF3" s="14"/>
-      <c r="RG3" s="15"/>
-      <c r="RH3" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="RI3" s="14"/>
-      <c r="RJ3" s="15"/>
-      <c r="RK3" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="RL3" s="14"/>
-      <c r="RM3" s="15"/>
-      <c r="RN3" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="RO3" s="14"/>
-      <c r="RP3" s="15"/>
-      <c r="RQ3" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="RR3" s="14"/>
-      <c r="RS3" s="15"/>
-      <c r="RT3" s="13" t="s">
+      <c r="SP3" s="21"/>
+      <c r="SQ3" s="22"/>
+      <c r="SR3" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="RU3" s="14"/>
-      <c r="RV3" s="15"/>
-      <c r="RW3" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="RX3" s="14"/>
-      <c r="RY3" s="15"/>
-      <c r="RZ3" s="13" t="s">
+      <c r="SS3" s="21"/>
+      <c r="ST3" s="22"/>
+      <c r="SU3" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="SA3" s="14"/>
-      <c r="SB3" s="15"/>
-      <c r="SC3" s="13" t="s">
+      <c r="SV3" s="21"/>
+      <c r="SW3" s="22"/>
+      <c r="SX3" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="SD3" s="14"/>
-      <c r="SE3" s="15"/>
-      <c r="SF3" s="13" t="s">
+      <c r="SY3" s="21"/>
+      <c r="SZ3" s="22"/>
+      <c r="TA3" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="SG3" s="14"/>
-      <c r="SH3" s="15"/>
-      <c r="SI3" s="13" t="s">
+      <c r="TB3" s="21"/>
+      <c r="TC3" s="22"/>
+      <c r="TD3" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="SJ3" s="14"/>
-      <c r="SK3" s="15"/>
-      <c r="SL3" s="13" t="s">
+      <c r="TE3" s="21"/>
+      <c r="TF3" s="22"/>
+      <c r="TG3" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="SM3" s="14"/>
-      <c r="SN3" s="15"/>
-      <c r="SO3" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="SP3" s="14"/>
-      <c r="SQ3" s="15"/>
-      <c r="SR3" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="SS3" s="14"/>
-      <c r="ST3" s="15"/>
-      <c r="SU3" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="SV3" s="14"/>
-      <c r="SW3" s="15"/>
-      <c r="SX3" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="SY3" s="14"/>
-      <c r="SZ3" s="15"/>
-      <c r="TA3" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="TB3" s="14"/>
-      <c r="TC3" s="15"/>
-      <c r="TD3" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="TE3" s="14"/>
-      <c r="TF3" s="15"/>
-      <c r="TG3" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="TH3" s="14"/>
-      <c r="TI3" s="15"/>
+      <c r="TH3" s="21"/>
+      <c r="TI3" s="22"/>
     </row>
     <row r="4" spans="1:529" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="9" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="9" t="s">
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="9" t="s">
+      <c r="L4" s="15"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="9" t="s">
+      <c r="O4" s="15"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="19"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="9" t="s">
+      <c r="R4" s="15"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="19"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="9" t="s">
+      <c r="U4" s="15"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="20" t="s">
+      <c r="X4" s="15"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="9" t="s">
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="9" t="s">
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="9" t="s">
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="9" t="s">
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="10"/>
-      <c r="AO4" s="9" t="s">
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AP4" s="19"/>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="9" t="s">
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="AS4" s="19"/>
-      <c r="AT4" s="10"/>
-      <c r="AU4" s="9" t="s">
+      <c r="AS4" s="15"/>
+      <c r="AT4" s="16"/>
+      <c r="AU4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AV4" s="19"/>
-      <c r="AW4" s="10"/>
-      <c r="AX4" s="9" t="s">
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="16"/>
+      <c r="AX4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AY4" s="19"/>
-      <c r="AZ4" s="10"/>
-      <c r="BA4" s="9" t="s">
+      <c r="AY4" s="15"/>
+      <c r="AZ4" s="16"/>
+      <c r="BA4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="BB4" s="19"/>
-      <c r="BC4" s="10"/>
-      <c r="BD4" s="9" t="s">
+      <c r="BB4" s="15"/>
+      <c r="BC4" s="16"/>
+      <c r="BD4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="BE4" s="19"/>
-      <c r="BF4" s="10"/>
-      <c r="BG4" s="9" t="s">
+      <c r="BE4" s="15"/>
+      <c r="BF4" s="16"/>
+      <c r="BG4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="BH4" s="19"/>
-      <c r="BI4" s="10"/>
-      <c r="BJ4" s="9" t="s">
+      <c r="BH4" s="15"/>
+      <c r="BI4" s="16"/>
+      <c r="BJ4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="BK4" s="19"/>
-      <c r="BL4" s="10"/>
-      <c r="BM4" s="9" t="s">
+      <c r="BK4" s="15"/>
+      <c r="BL4" s="16"/>
+      <c r="BM4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="BN4" s="19"/>
-      <c r="BO4" s="10"/>
-      <c r="BP4" s="9" t="s">
+      <c r="BN4" s="15"/>
+      <c r="BO4" s="16"/>
+      <c r="BP4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="BQ4" s="19"/>
-      <c r="BR4" s="10"/>
-      <c r="BS4" s="9" t="s">
+      <c r="BQ4" s="15"/>
+      <c r="BR4" s="16"/>
+      <c r="BS4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="BT4" s="19"/>
-      <c r="BU4" s="10"/>
-      <c r="BV4" s="9" t="s">
+      <c r="BT4" s="15"/>
+      <c r="BU4" s="16"/>
+      <c r="BV4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="BW4" s="19"/>
-      <c r="BX4" s="10"/>
-      <c r="BY4" s="9" t="s">
+      <c r="BW4" s="15"/>
+      <c r="BX4" s="16"/>
+      <c r="BY4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="BZ4" s="19"/>
-      <c r="CA4" s="10"/>
-      <c r="CB4" s="9" t="s">
+      <c r="BZ4" s="15"/>
+      <c r="CA4" s="16"/>
+      <c r="CB4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="CC4" s="19"/>
-      <c r="CD4" s="10"/>
-      <c r="CE4" s="9" t="s">
+      <c r="CC4" s="15"/>
+      <c r="CD4" s="16"/>
+      <c r="CE4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="CF4" s="19"/>
-      <c r="CG4" s="10"/>
-      <c r="CH4" s="9" t="s">
+      <c r="CF4" s="15"/>
+      <c r="CG4" s="16"/>
+      <c r="CH4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="CI4" s="19"/>
-      <c r="CJ4" s="10"/>
-      <c r="CK4" s="9" t="s">
+      <c r="CI4" s="15"/>
+      <c r="CJ4" s="16"/>
+      <c r="CK4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="CL4" s="19"/>
-      <c r="CM4" s="10"/>
-      <c r="CN4" s="9" t="s">
+      <c r="CL4" s="15"/>
+      <c r="CM4" s="16"/>
+      <c r="CN4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="CO4" s="19"/>
-      <c r="CP4" s="10"/>
-      <c r="CQ4" s="9" t="s">
+      <c r="CO4" s="15"/>
+      <c r="CP4" s="16"/>
+      <c r="CQ4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="CR4" s="19"/>
-      <c r="CS4" s="10"/>
-      <c r="CT4" s="9" t="s">
+      <c r="CR4" s="15"/>
+      <c r="CS4" s="16"/>
+      <c r="CT4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="CU4" s="19"/>
-      <c r="CV4" s="10"/>
-      <c r="CW4" s="9" t="s">
+      <c r="CU4" s="15"/>
+      <c r="CV4" s="16"/>
+      <c r="CW4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="CX4" s="19"/>
-      <c r="CY4" s="10"/>
-      <c r="CZ4" s="9" t="s">
+      <c r="CX4" s="15"/>
+      <c r="CY4" s="16"/>
+      <c r="CZ4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="DA4" s="19"/>
-      <c r="DB4" s="10"/>
-      <c r="DC4" s="9" t="s">
+      <c r="DA4" s="15"/>
+      <c r="DB4" s="16"/>
+      <c r="DC4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="DD4" s="19"/>
-      <c r="DE4" s="10"/>
-      <c r="DF4" s="9" t="s">
+      <c r="DD4" s="15"/>
+      <c r="DE4" s="16"/>
+      <c r="DF4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="DG4" s="19"/>
-      <c r="DH4" s="10"/>
-      <c r="DI4" s="9" t="s">
+      <c r="DG4" s="15"/>
+      <c r="DH4" s="16"/>
+      <c r="DI4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="DJ4" s="19"/>
-      <c r="DK4" s="10"/>
-      <c r="DL4" s="9" t="s">
+      <c r="DJ4" s="15"/>
+      <c r="DK4" s="16"/>
+      <c r="DL4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="DM4" s="19"/>
-      <c r="DN4" s="10"/>
-      <c r="DO4" s="9" t="s">
+      <c r="DM4" s="15"/>
+      <c r="DN4" s="16"/>
+      <c r="DO4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="DP4" s="19"/>
-      <c r="DQ4" s="10"/>
-      <c r="DR4" s="9" t="s">
+      <c r="DP4" s="15"/>
+      <c r="DQ4" s="16"/>
+      <c r="DR4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="DS4" s="19"/>
-      <c r="DT4" s="10"/>
-      <c r="DU4" s="9" t="s">
+      <c r="DS4" s="15"/>
+      <c r="DT4" s="16"/>
+      <c r="DU4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="DV4" s="19"/>
-      <c r="DW4" s="10"/>
-      <c r="DX4" s="9" t="s">
+      <c r="DV4" s="15"/>
+      <c r="DW4" s="16"/>
+      <c r="DX4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="DY4" s="19"/>
-      <c r="DZ4" s="10"/>
-      <c r="EA4" s="9" t="s">
+      <c r="DY4" s="15"/>
+      <c r="DZ4" s="16"/>
+      <c r="EA4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="EB4" s="19"/>
-      <c r="EC4" s="10"/>
-      <c r="ED4" s="9" t="s">
+      <c r="EB4" s="15"/>
+      <c r="EC4" s="16"/>
+      <c r="ED4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="EE4" s="19"/>
-      <c r="EF4" s="10"/>
-      <c r="EG4" s="9" t="s">
+      <c r="EE4" s="15"/>
+      <c r="EF4" s="16"/>
+      <c r="EG4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="EH4" s="19"/>
-      <c r="EI4" s="10"/>
-      <c r="EJ4" s="9" t="s">
+      <c r="EH4" s="15"/>
+      <c r="EI4" s="16"/>
+      <c r="EJ4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="EK4" s="19"/>
-      <c r="EL4" s="10"/>
-      <c r="EM4" s="9" t="s">
+      <c r="EK4" s="15"/>
+      <c r="EL4" s="16"/>
+      <c r="EM4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="EN4" s="19"/>
-      <c r="EO4" s="10"/>
-      <c r="EP4" s="9" t="s">
+      <c r="EN4" s="15"/>
+      <c r="EO4" s="16"/>
+      <c r="EP4" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="EQ4" s="19"/>
-      <c r="ER4" s="10"/>
-      <c r="ES4" s="9" t="s">
+      <c r="EQ4" s="15"/>
+      <c r="ER4" s="16"/>
+      <c r="ES4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="ET4" s="19"/>
-      <c r="EU4" s="10"/>
-      <c r="EV4" s="9" t="s">
+      <c r="ET4" s="15"/>
+      <c r="EU4" s="16"/>
+      <c r="EV4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="EW4" s="19"/>
-      <c r="EX4" s="10"/>
-      <c r="EY4" s="9" t="s">
+      <c r="EW4" s="15"/>
+      <c r="EX4" s="16"/>
+      <c r="EY4" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="EZ4" s="19"/>
-      <c r="FA4" s="10"/>
-      <c r="FB4" s="9" t="s">
+      <c r="EZ4" s="15"/>
+      <c r="FA4" s="16"/>
+      <c r="FB4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="FC4" s="19"/>
-      <c r="FD4" s="10"/>
-      <c r="FE4" s="9" t="s">
+      <c r="FC4" s="15"/>
+      <c r="FD4" s="16"/>
+      <c r="FE4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="FF4" s="19"/>
-      <c r="FG4" s="10"/>
-      <c r="FH4" s="9" t="s">
+      <c r="FF4" s="15"/>
+      <c r="FG4" s="16"/>
+      <c r="FH4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="FI4" s="19"/>
-      <c r="FJ4" s="10"/>
-      <c r="FK4" s="9" t="s">
+      <c r="FI4" s="15"/>
+      <c r="FJ4" s="16"/>
+      <c r="FK4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="FL4" s="19"/>
-      <c r="FM4" s="10"/>
-      <c r="FN4" s="9" t="s">
+      <c r="FL4" s="15"/>
+      <c r="FM4" s="16"/>
+      <c r="FN4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="FO4" s="19"/>
-      <c r="FP4" s="10"/>
-      <c r="FQ4" s="9" t="s">
+      <c r="FO4" s="15"/>
+      <c r="FP4" s="16"/>
+      <c r="FQ4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="FR4" s="19"/>
-      <c r="FS4" s="10"/>
-      <c r="FT4" s="9" t="s">
+      <c r="FR4" s="15"/>
+      <c r="FS4" s="16"/>
+      <c r="FT4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="FU4" s="19"/>
-      <c r="FV4" s="10"/>
-      <c r="FW4" s="9" t="s">
+      <c r="FU4" s="15"/>
+      <c r="FV4" s="16"/>
+      <c r="FW4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="FX4" s="19"/>
-      <c r="FY4" s="10"/>
-      <c r="FZ4" s="9" t="s">
+      <c r="FX4" s="15"/>
+      <c r="FY4" s="16"/>
+      <c r="FZ4" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="GA4" s="19"/>
-      <c r="GB4" s="10"/>
-      <c r="GC4" s="9" t="s">
+      <c r="GA4" s="15"/>
+      <c r="GB4" s="16"/>
+      <c r="GC4" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="GD4" s="19"/>
-      <c r="GE4" s="10"/>
-      <c r="GF4" s="9" t="s">
+      <c r="GD4" s="15"/>
+      <c r="GE4" s="16"/>
+      <c r="GF4" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="GG4" s="19"/>
-      <c r="GH4" s="10"/>
-      <c r="GI4" s="9" t="s">
+      <c r="GG4" s="15"/>
+      <c r="GH4" s="16"/>
+      <c r="GI4" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="GJ4" s="19"/>
-      <c r="GK4" s="10"/>
-      <c r="GL4" s="9" t="s">
+      <c r="GJ4" s="15"/>
+      <c r="GK4" s="16"/>
+      <c r="GL4" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="GM4" s="19"/>
-      <c r="GN4" s="10"/>
-      <c r="GO4" s="9" t="s">
+      <c r="GM4" s="15"/>
+      <c r="GN4" s="16"/>
+      <c r="GO4" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="GP4" s="19"/>
-      <c r="GQ4" s="10"/>
-      <c r="GR4" s="9" t="s">
+      <c r="GP4" s="15"/>
+      <c r="GQ4" s="16"/>
+      <c r="GR4" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="GS4" s="19"/>
-      <c r="GT4" s="10"/>
-      <c r="GU4" s="9" t="s">
+      <c r="GS4" s="15"/>
+      <c r="GT4" s="16"/>
+      <c r="GU4" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="GV4" s="19"/>
-      <c r="GW4" s="10"/>
-      <c r="GX4" s="9" t="s">
+      <c r="GV4" s="15"/>
+      <c r="GW4" s="16"/>
+      <c r="GX4" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="GY4" s="19"/>
-      <c r="GZ4" s="10"/>
-      <c r="HA4" s="9" t="s">
+      <c r="GY4" s="15"/>
+      <c r="GZ4" s="16"/>
+      <c r="HA4" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="HB4" s="19"/>
-      <c r="HC4" s="10"/>
-      <c r="HD4" s="9" t="s">
+      <c r="HB4" s="15"/>
+      <c r="HC4" s="16"/>
+      <c r="HD4" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="HE4" s="19"/>
-      <c r="HF4" s="10"/>
-      <c r="HG4" s="9" t="s">
+      <c r="HE4" s="15"/>
+      <c r="HF4" s="16"/>
+      <c r="HG4" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="HH4" s="19"/>
-      <c r="HI4" s="10"/>
-      <c r="HJ4" s="9" t="s">
+      <c r="HH4" s="15"/>
+      <c r="HI4" s="16"/>
+      <c r="HJ4" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="HK4" s="19"/>
-      <c r="HL4" s="10"/>
-      <c r="HM4" s="9" t="s">
+      <c r="HK4" s="15"/>
+      <c r="HL4" s="16"/>
+      <c r="HM4" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="HN4" s="19"/>
-      <c r="HO4" s="10"/>
-      <c r="HP4" s="9" t="s">
+      <c r="HN4" s="15"/>
+      <c r="HO4" s="16"/>
+      <c r="HP4" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="HQ4" s="19"/>
-      <c r="HR4" s="10"/>
-      <c r="HS4" s="9" t="s">
+      <c r="HQ4" s="15"/>
+      <c r="HR4" s="16"/>
+      <c r="HS4" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="HT4" s="19"/>
-      <c r="HU4" s="10"/>
-      <c r="HV4" s="9" t="s">
+      <c r="HT4" s="15"/>
+      <c r="HU4" s="16"/>
+      <c r="HV4" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="HW4" s="19"/>
-      <c r="HX4" s="10"/>
-      <c r="HY4" s="9" t="s">
+      <c r="HW4" s="15"/>
+      <c r="HX4" s="16"/>
+      <c r="HY4" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="HZ4" s="19"/>
-      <c r="IA4" s="10"/>
-      <c r="IB4" s="9" t="s">
+      <c r="HZ4" s="15"/>
+      <c r="IA4" s="16"/>
+      <c r="IB4" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="IC4" s="19"/>
-      <c r="ID4" s="10"/>
-      <c r="IE4" s="9" t="s">
+      <c r="IC4" s="15"/>
+      <c r="ID4" s="16"/>
+      <c r="IE4" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="IF4" s="19"/>
-      <c r="IG4" s="10"/>
-      <c r="IH4" s="9" t="s">
+      <c r="IF4" s="15"/>
+      <c r="IG4" s="16"/>
+      <c r="IH4" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="II4" s="19"/>
-      <c r="IJ4" s="10"/>
-      <c r="IK4" s="9" t="s">
+      <c r="II4" s="15"/>
+      <c r="IJ4" s="16"/>
+      <c r="IK4" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="IL4" s="19"/>
-      <c r="IM4" s="10"/>
-      <c r="IN4" s="9" t="s">
+      <c r="IL4" s="15"/>
+      <c r="IM4" s="16"/>
+      <c r="IN4" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="IO4" s="19"/>
-      <c r="IP4" s="10"/>
-      <c r="IQ4" s="9" t="s">
+      <c r="IO4" s="15"/>
+      <c r="IP4" s="16"/>
+      <c r="IQ4" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="IR4" s="19"/>
-      <c r="IS4" s="10"/>
-      <c r="IT4" s="9" t="s">
+      <c r="IR4" s="15"/>
+      <c r="IS4" s="16"/>
+      <c r="IT4" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="IU4" s="19"/>
-      <c r="IV4" s="10"/>
-      <c r="IW4" s="9" t="s">
+      <c r="IU4" s="15"/>
+      <c r="IV4" s="16"/>
+      <c r="IW4" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="IX4" s="19"/>
-      <c r="IY4" s="10"/>
-      <c r="IZ4" s="9" t="s">
+      <c r="IX4" s="15"/>
+      <c r="IY4" s="16"/>
+      <c r="IZ4" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="JA4" s="19"/>
-      <c r="JB4" s="10"/>
-      <c r="JC4" s="9" t="s">
+      <c r="JA4" s="15"/>
+      <c r="JB4" s="16"/>
+      <c r="JC4" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="JD4" s="19"/>
-      <c r="JE4" s="10"/>
-      <c r="JF4" s="9" t="s">
+      <c r="JD4" s="15"/>
+      <c r="JE4" s="16"/>
+      <c r="JF4" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="JG4" s="19"/>
-      <c r="JH4" s="10"/>
-      <c r="JI4" s="9" t="s">
+      <c r="JG4" s="15"/>
+      <c r="JH4" s="16"/>
+      <c r="JI4" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="JJ4" s="19"/>
-      <c r="JK4" s="10"/>
-      <c r="JL4" s="9" t="s">
+      <c r="JJ4" s="15"/>
+      <c r="JK4" s="16"/>
+      <c r="JL4" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="JM4" s="19"/>
-      <c r="JN4" s="10"/>
-      <c r="JO4" s="9" t="s">
+      <c r="JM4" s="15"/>
+      <c r="JN4" s="16"/>
+      <c r="JO4" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="JP4" s="19"/>
-      <c r="JQ4" s="10"/>
-      <c r="JR4" s="9" t="s">
+      <c r="JP4" s="15"/>
+      <c r="JQ4" s="16"/>
+      <c r="JR4" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="JS4" s="19"/>
-      <c r="JT4" s="10"/>
-      <c r="JU4" s="9" t="s">
+      <c r="JS4" s="15"/>
+      <c r="JT4" s="16"/>
+      <c r="JU4" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="JV4" s="19"/>
-      <c r="JW4" s="10"/>
-      <c r="JX4" s="9" t="s">
+      <c r="JV4" s="15"/>
+      <c r="JW4" s="16"/>
+      <c r="JX4" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="JY4" s="19"/>
-      <c r="JZ4" s="10"/>
-      <c r="KA4" s="9" t="s">
+      <c r="JY4" s="15"/>
+      <c r="JZ4" s="16"/>
+      <c r="KA4" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="KB4" s="19"/>
-      <c r="KC4" s="10"/>
-      <c r="KD4" s="9" t="s">
+      <c r="KB4" s="15"/>
+      <c r="KC4" s="16"/>
+      <c r="KD4" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="KE4" s="19"/>
-      <c r="KF4" s="10"/>
-      <c r="KG4" s="9" t="s">
+      <c r="KE4" s="15"/>
+      <c r="KF4" s="16"/>
+      <c r="KG4" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="KH4" s="19"/>
-      <c r="KI4" s="10"/>
-      <c r="KJ4" s="9" t="s">
+      <c r="KH4" s="15"/>
+      <c r="KI4" s="16"/>
+      <c r="KJ4" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="KK4" s="19"/>
-      <c r="KL4" s="10"/>
-      <c r="KM4" s="9" t="s">
+      <c r="KK4" s="15"/>
+      <c r="KL4" s="16"/>
+      <c r="KM4" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="KN4" s="19"/>
-      <c r="KO4" s="10"/>
-      <c r="KP4" s="9" t="s">
+      <c r="KN4" s="15"/>
+      <c r="KO4" s="16"/>
+      <c r="KP4" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="KQ4" s="19"/>
-      <c r="KR4" s="10"/>
-      <c r="KS4" s="9" t="s">
+      <c r="KQ4" s="15"/>
+      <c r="KR4" s="16"/>
+      <c r="KS4" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="KT4" s="19"/>
-      <c r="KU4" s="10"/>
-      <c r="KV4" s="9" t="s">
+      <c r="KT4" s="15"/>
+      <c r="KU4" s="16"/>
+      <c r="KV4" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="KW4" s="19"/>
-      <c r="KX4" s="10"/>
-      <c r="KY4" s="9" t="s">
+      <c r="KW4" s="15"/>
+      <c r="KX4" s="16"/>
+      <c r="KY4" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="KZ4" s="19"/>
-      <c r="LA4" s="10"/>
-      <c r="LB4" s="9" t="s">
+      <c r="KZ4" s="15"/>
+      <c r="LA4" s="16"/>
+      <c r="LB4" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="LC4" s="19"/>
-      <c r="LD4" s="10"/>
-      <c r="LE4" s="9" t="s">
+      <c r="LC4" s="15"/>
+      <c r="LD4" s="16"/>
+      <c r="LE4" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="LF4" s="19"/>
-      <c r="LG4" s="10"/>
-      <c r="LH4" s="9" t="s">
+      <c r="LF4" s="15"/>
+      <c r="LG4" s="16"/>
+      <c r="LH4" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="LI4" s="19"/>
-      <c r="LJ4" s="10"/>
-      <c r="LK4" s="9" t="s">
+      <c r="LI4" s="15"/>
+      <c r="LJ4" s="16"/>
+      <c r="LK4" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="LL4" s="19"/>
-      <c r="LM4" s="10"/>
-      <c r="LN4" s="9" t="s">
+      <c r="LL4" s="15"/>
+      <c r="LM4" s="16"/>
+      <c r="LN4" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="LO4" s="19"/>
-      <c r="LP4" s="10"/>
-      <c r="LQ4" s="9" t="s">
+      <c r="LO4" s="15"/>
+      <c r="LP4" s="16"/>
+      <c r="LQ4" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="LR4" s="19"/>
-      <c r="LS4" s="10"/>
-      <c r="LT4" s="9" t="s">
+      <c r="LR4" s="15"/>
+      <c r="LS4" s="16"/>
+      <c r="LT4" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="LU4" s="19"/>
-      <c r="LV4" s="10"/>
-      <c r="LW4" s="9" t="s">
+      <c r="LU4" s="15"/>
+      <c r="LV4" s="16"/>
+      <c r="LW4" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="LX4" s="19"/>
-      <c r="LY4" s="10"/>
-      <c r="LZ4" s="9" t="s">
+      <c r="LX4" s="15"/>
+      <c r="LY4" s="16"/>
+      <c r="LZ4" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="MA4" s="19"/>
-      <c r="MB4" s="10"/>
-      <c r="MC4" s="9" t="s">
+      <c r="MA4" s="15"/>
+      <c r="MB4" s="16"/>
+      <c r="MC4" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="MD4" s="19"/>
-      <c r="ME4" s="10"/>
-      <c r="MF4" s="9" t="s">
+      <c r="MD4" s="15"/>
+      <c r="ME4" s="16"/>
+      <c r="MF4" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="MG4" s="19"/>
-      <c r="MH4" s="10"/>
-      <c r="MI4" s="9" t="s">
+      <c r="MG4" s="15"/>
+      <c r="MH4" s="16"/>
+      <c r="MI4" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="MJ4" s="19"/>
-      <c r="MK4" s="10"/>
-      <c r="ML4" s="9" t="s">
+      <c r="MJ4" s="15"/>
+      <c r="MK4" s="16"/>
+      <c r="ML4" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="MM4" s="19"/>
-      <c r="MN4" s="10"/>
-      <c r="MO4" s="9" t="s">
+      <c r="MM4" s="15"/>
+      <c r="MN4" s="16"/>
+      <c r="MO4" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="MP4" s="19"/>
-      <c r="MQ4" s="10"/>
-      <c r="MR4" s="9" t="s">
+      <c r="MP4" s="15"/>
+      <c r="MQ4" s="16"/>
+      <c r="MR4" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="MS4" s="19"/>
-      <c r="MT4" s="10"/>
-      <c r="MU4" s="9" t="s">
+      <c r="MS4" s="15"/>
+      <c r="MT4" s="16"/>
+      <c r="MU4" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="MV4" s="19"/>
-      <c r="MW4" s="10"/>
-      <c r="MX4" s="9" t="s">
+      <c r="MV4" s="15"/>
+      <c r="MW4" s="16"/>
+      <c r="MX4" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="MY4" s="19"/>
-      <c r="MZ4" s="10"/>
-      <c r="NA4" s="9" t="s">
+      <c r="MY4" s="15"/>
+      <c r="MZ4" s="16"/>
+      <c r="NA4" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="NB4" s="19"/>
-      <c r="NC4" s="10"/>
-      <c r="ND4" s="9" t="s">
+      <c r="NB4" s="15"/>
+      <c r="NC4" s="16"/>
+      <c r="ND4" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="NE4" s="19"/>
-      <c r="NF4" s="10"/>
-      <c r="NG4" s="9" t="s">
+      <c r="NE4" s="15"/>
+      <c r="NF4" s="16"/>
+      <c r="NG4" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="NH4" s="19"/>
-      <c r="NI4" s="10"/>
-      <c r="NJ4" s="9" t="s">
+      <c r="NH4" s="15"/>
+      <c r="NI4" s="16"/>
+      <c r="NJ4" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="NK4" s="19"/>
-      <c r="NL4" s="10"/>
-      <c r="NM4" s="9" t="s">
+      <c r="NK4" s="15"/>
+      <c r="NL4" s="16"/>
+      <c r="NM4" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="NN4" s="19"/>
-      <c r="NO4" s="10"/>
-      <c r="NP4" s="9" t="s">
+      <c r="NN4" s="15"/>
+      <c r="NO4" s="16"/>
+      <c r="NP4" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="NQ4" s="19"/>
-      <c r="NR4" s="10"/>
-      <c r="NS4" s="9" t="s">
+      <c r="NQ4" s="15"/>
+      <c r="NR4" s="16"/>
+      <c r="NS4" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="NT4" s="19"/>
-      <c r="NU4" s="10"/>
-      <c r="NV4" s="9" t="s">
+      <c r="NT4" s="15"/>
+      <c r="NU4" s="16"/>
+      <c r="NV4" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="NW4" s="19"/>
-      <c r="NX4" s="10"/>
-      <c r="NY4" s="9" t="s">
+      <c r="NW4" s="15"/>
+      <c r="NX4" s="16"/>
+      <c r="NY4" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="NZ4" s="19"/>
-      <c r="OA4" s="10"/>
-      <c r="OB4" s="9" t="s">
+      <c r="NZ4" s="15"/>
+      <c r="OA4" s="16"/>
+      <c r="OB4" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="OC4" s="19"/>
-      <c r="OD4" s="10"/>
-      <c r="OE4" s="9" t="s">
+      <c r="OC4" s="15"/>
+      <c r="OD4" s="16"/>
+      <c r="OE4" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="OF4" s="19"/>
-      <c r="OG4" s="10"/>
-      <c r="OH4" s="9" t="s">
+      <c r="OF4" s="15"/>
+      <c r="OG4" s="16"/>
+      <c r="OH4" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="OI4" s="19"/>
-      <c r="OJ4" s="10"/>
-      <c r="OK4" s="9" t="s">
+      <c r="OI4" s="15"/>
+      <c r="OJ4" s="16"/>
+      <c r="OK4" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="OL4" s="19"/>
-      <c r="OM4" s="10"/>
-      <c r="ON4" s="9" t="s">
+      <c r="OL4" s="15"/>
+      <c r="OM4" s="16"/>
+      <c r="ON4" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="OO4" s="19"/>
-      <c r="OP4" s="10"/>
-      <c r="OQ4" s="9" t="s">
+      <c r="OO4" s="15"/>
+      <c r="OP4" s="16"/>
+      <c r="OQ4" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="OR4" s="19"/>
-      <c r="OS4" s="10"/>
-      <c r="OT4" s="9" t="s">
+      <c r="OR4" s="15"/>
+      <c r="OS4" s="16"/>
+      <c r="OT4" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="OU4" s="19"/>
-      <c r="OV4" s="10"/>
-      <c r="OW4" s="9" t="s">
+      <c r="OU4" s="15"/>
+      <c r="OV4" s="16"/>
+      <c r="OW4" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="OX4" s="19"/>
-      <c r="OY4" s="10"/>
-      <c r="OZ4" s="9" t="s">
+      <c r="OX4" s="15"/>
+      <c r="OY4" s="16"/>
+      <c r="OZ4" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="PA4" s="19"/>
-      <c r="PB4" s="10"/>
-      <c r="PC4" s="9" t="s">
+      <c r="PA4" s="15"/>
+      <c r="PB4" s="16"/>
+      <c r="PC4" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="PD4" s="19"/>
-      <c r="PE4" s="10"/>
-      <c r="PF4" s="9" t="s">
+      <c r="PD4" s="15"/>
+      <c r="PE4" s="16"/>
+      <c r="PF4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="PG4" s="19"/>
-      <c r="PH4" s="10"/>
-      <c r="PI4" s="9" t="s">
+      <c r="PG4" s="15"/>
+      <c r="PH4" s="16"/>
+      <c r="PI4" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="PJ4" s="19"/>
-      <c r="PK4" s="10"/>
-      <c r="PL4" s="9" t="s">
+      <c r="PJ4" s="15"/>
+      <c r="PK4" s="16"/>
+      <c r="PL4" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="PM4" s="19"/>
-      <c r="PN4" s="10"/>
-      <c r="PO4" s="9" t="s">
+      <c r="PM4" s="15"/>
+      <c r="PN4" s="16"/>
+      <c r="PO4" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="PP4" s="19"/>
-      <c r="PQ4" s="10"/>
-      <c r="PR4" s="9" t="s">
+      <c r="PP4" s="15"/>
+      <c r="PQ4" s="16"/>
+      <c r="PR4" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="PS4" s="19"/>
-      <c r="PT4" s="10"/>
-      <c r="PU4" s="9" t="s">
+      <c r="PS4" s="15"/>
+      <c r="PT4" s="16"/>
+      <c r="PU4" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="PV4" s="19"/>
-      <c r="PW4" s="10"/>
-      <c r="PX4" s="9" t="s">
+      <c r="PV4" s="15"/>
+      <c r="PW4" s="16"/>
+      <c r="PX4" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="PY4" s="19"/>
-      <c r="PZ4" s="10"/>
-      <c r="QA4" s="9" t="s">
+      <c r="PY4" s="15"/>
+      <c r="PZ4" s="16"/>
+      <c r="QA4" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="QB4" s="19"/>
-      <c r="QC4" s="10"/>
-      <c r="QD4" s="9" t="s">
+      <c r="QB4" s="15"/>
+      <c r="QC4" s="16"/>
+      <c r="QD4" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="QE4" s="19"/>
-      <c r="QF4" s="10"/>
-      <c r="QG4" s="9" t="s">
+      <c r="QE4" s="15"/>
+      <c r="QF4" s="16"/>
+      <c r="QG4" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="QH4" s="19"/>
-      <c r="QI4" s="10"/>
-      <c r="QJ4" s="9" t="s">
+      <c r="QH4" s="15"/>
+      <c r="QI4" s="16"/>
+      <c r="QJ4" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="QK4" s="19"/>
-      <c r="QL4" s="10"/>
-      <c r="QM4" s="9" t="s">
+      <c r="QK4" s="15"/>
+      <c r="QL4" s="16"/>
+      <c r="QM4" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="QN4" s="19"/>
-      <c r="QO4" s="10"/>
-      <c r="QP4" s="9" t="s">
+      <c r="QN4" s="15"/>
+      <c r="QO4" s="16"/>
+      <c r="QP4" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="QQ4" s="19"/>
-      <c r="QR4" s="10"/>
-      <c r="QS4" s="9" t="s">
+      <c r="QQ4" s="15"/>
+      <c r="QR4" s="16"/>
+      <c r="QS4" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="QT4" s="19"/>
-      <c r="QU4" s="10"/>
-      <c r="QV4" s="9" t="s">
+      <c r="QT4" s="15"/>
+      <c r="QU4" s="16"/>
+      <c r="QV4" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="QW4" s="19"/>
-      <c r="QX4" s="10"/>
-      <c r="QY4" s="9" t="s">
+      <c r="QW4" s="15"/>
+      <c r="QX4" s="16"/>
+      <c r="QY4" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="QZ4" s="19"/>
-      <c r="RA4" s="10"/>
-      <c r="RB4" s="9" t="s">
+      <c r="QZ4" s="15"/>
+      <c r="RA4" s="16"/>
+      <c r="RB4" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="RC4" s="19"/>
-      <c r="RD4" s="10"/>
-      <c r="RE4" s="9" t="s">
+      <c r="RC4" s="15"/>
+      <c r="RD4" s="16"/>
+      <c r="RE4" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="RF4" s="19"/>
-      <c r="RG4" s="10"/>
-      <c r="RH4" s="9" t="s">
+      <c r="RF4" s="15"/>
+      <c r="RG4" s="16"/>
+      <c r="RH4" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="RI4" s="19"/>
-      <c r="RJ4" s="10"/>
-      <c r="RK4" s="9" t="s">
+      <c r="RI4" s="15"/>
+      <c r="RJ4" s="16"/>
+      <c r="RK4" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="RL4" s="19"/>
-      <c r="RM4" s="10"/>
-      <c r="RN4" s="9" t="s">
+      <c r="RL4" s="15"/>
+      <c r="RM4" s="16"/>
+      <c r="RN4" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="RO4" s="19"/>
-      <c r="RP4" s="10"/>
-      <c r="RQ4" s="9" t="s">
+      <c r="RO4" s="15"/>
+      <c r="RP4" s="16"/>
+      <c r="RQ4" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="RR4" s="19"/>
-      <c r="RS4" s="10"/>
-      <c r="RT4" s="9" t="s">
+      <c r="RR4" s="15"/>
+      <c r="RS4" s="16"/>
+      <c r="RT4" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="RU4" s="19"/>
-      <c r="RV4" s="10"/>
-      <c r="RW4" s="9" t="s">
+      <c r="RU4" s="15"/>
+      <c r="RV4" s="16"/>
+      <c r="RW4" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="RX4" s="19"/>
-      <c r="RY4" s="10"/>
-      <c r="RZ4" s="9" t="s">
+      <c r="RX4" s="15"/>
+      <c r="RY4" s="16"/>
+      <c r="RZ4" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="SA4" s="19"/>
-      <c r="SB4" s="10"/>
-      <c r="SC4" s="9" t="s">
+      <c r="SA4" s="15"/>
+      <c r="SB4" s="16"/>
+      <c r="SC4" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="SD4" s="19"/>
-      <c r="SE4" s="10"/>
-      <c r="SF4" s="9" t="s">
+      <c r="SD4" s="15"/>
+      <c r="SE4" s="16"/>
+      <c r="SF4" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="SG4" s="19"/>
-      <c r="SH4" s="10"/>
-      <c r="SI4" s="9" t="s">
+      <c r="SG4" s="15"/>
+      <c r="SH4" s="16"/>
+      <c r="SI4" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="SJ4" s="19"/>
-      <c r="SK4" s="10"/>
-      <c r="SL4" s="9" t="s">
+      <c r="SJ4" s="15"/>
+      <c r="SK4" s="16"/>
+      <c r="SL4" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="SM4" s="19"/>
-      <c r="SN4" s="10"/>
-      <c r="SO4" s="9" t="s">
+      <c r="SM4" s="15"/>
+      <c r="SN4" s="16"/>
+      <c r="SO4" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="SP4" s="19"/>
-      <c r="SQ4" s="10"/>
-      <c r="SR4" s="9" t="s">
+      <c r="SP4" s="15"/>
+      <c r="SQ4" s="16"/>
+      <c r="SR4" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="SS4" s="19"/>
-      <c r="ST4" s="10"/>
-      <c r="SU4" s="9" t="s">
+      <c r="SS4" s="15"/>
+      <c r="ST4" s="16"/>
+      <c r="SU4" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="SV4" s="19"/>
-      <c r="SW4" s="10"/>
-      <c r="SX4" s="9" t="s">
+      <c r="SV4" s="15"/>
+      <c r="SW4" s="16"/>
+      <c r="SX4" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="SY4" s="19"/>
-      <c r="SZ4" s="10"/>
-      <c r="TA4" s="9" t="s">
+      <c r="SY4" s="15"/>
+      <c r="SZ4" s="16"/>
+      <c r="TA4" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="TB4" s="19"/>
-      <c r="TC4" s="10"/>
-      <c r="TD4" s="9" t="s">
+      <c r="TB4" s="15"/>
+      <c r="TC4" s="16"/>
+      <c r="TD4" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="TE4" s="19"/>
-      <c r="TF4" s="10"/>
-      <c r="TG4" s="9" t="s">
+      <c r="TE4" s="15"/>
+      <c r="TF4" s="16"/>
+      <c r="TG4" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="TH4" s="19"/>
-      <c r="TI4" s="10"/>
+      <c r="TH4" s="15"/>
+      <c r="TI4" s="16"/>
     </row>
     <row r="5" spans="1:529" ht="36" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="X5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="Y5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="Z5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="AC5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="AD5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="AE5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="AF5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="AG5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="AH5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="AI5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="AJ5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="AK5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="AL5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="AM5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="AN5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="AO5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="AP5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="AQ5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="AR5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="AS5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="AT5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="AU5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="AV5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="AW5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="AX5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="AY5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="AZ5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="BA5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="BB5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="BC5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="BD5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="BE5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="BF5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="BG5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="BH5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="BI5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="BJ5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="BK5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="BL5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="BM5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="BN5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="BO5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="BP5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="BQ5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="BR5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="BS5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="BT5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="BU5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="BV5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="BW5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="BX5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="BY5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="BZ5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="CA5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="CB5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="CC5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="CD5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="CE5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="CF5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="CG5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="CH5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="CI5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="CJ5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="CK5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="CL5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="CM5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="CN5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="CO5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="CP5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="CQ5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="CR5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="CS5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="CT5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="CU5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="CV5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="CW5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="CX5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="CY5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="CZ5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="DA5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="DB5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="DC5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="DD5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="DE5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="DF5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="DG5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="DH5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="DI5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="DJ5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="DK5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="DL5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="DM5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="DN5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="DO5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="DP5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="DQ5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="DR5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="DS5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="DT5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="DU5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="DV5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="DW5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="DX5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="DY5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="DZ5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="EA5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="EB5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="EC5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="ED5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="EE5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="EF5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="EG5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="EH5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="EI5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="EJ5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="EK5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="EL5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="EM5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="EN5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="EO5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="EP5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="EQ5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="ER5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="ES5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="ET5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="EU5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="EV5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="EW5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="EX5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="EY5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="EZ5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="FA5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="FB5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="FC5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="FD5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="FE5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="FF5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="FG5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="FH5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="FI5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="FJ5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="FK5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="FL5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="FM5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="FN5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="FO5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="FP5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="FQ5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="FR5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="FS5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="FT5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="FU5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="FV5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="FW5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="FX5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="FY5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="FZ5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="GA5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="GB5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="GC5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="GD5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="GE5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="GF5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="GG5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="GH5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="GI5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="GJ5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="GK5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="GL5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="GM5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="GN5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="GO5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="GP5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="GQ5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="GR5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="GS5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="GT5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="GU5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="GV5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="GW5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="GX5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="GY5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="GZ5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="HA5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="HB5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="HC5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="HD5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="HE5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="HF5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="HG5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="HH5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="HI5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="HJ5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="HK5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="HL5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="HM5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="HN5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="HO5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="HP5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="HQ5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="HR5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="HS5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="HT5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="HU5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="HV5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="HW5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="HX5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="HY5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="HZ5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="IA5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="IB5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="IC5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="ID5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="IE5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="IF5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="IG5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="IH5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="II5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="IJ5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="IK5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="IL5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="IM5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="IN5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="IO5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="IP5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="IQ5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="IR5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="IS5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="IT5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="IU5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="IV5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="IW5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="IX5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="IY5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="IZ5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="JA5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="JB5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="JC5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="JD5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="JE5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="JF5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="JG5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="JH5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="JI5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="JJ5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="JK5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="JL5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="JM5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="JN5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="JO5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="JP5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="JQ5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="JR5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="JS5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="JT5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="JU5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="JV5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="JW5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="JX5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="JY5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="JZ5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="KA5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="KB5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="KC5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="KD5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="KE5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="KF5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="KG5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="KH5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="KI5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="KJ5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="KK5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="KL5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="KM5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="KN5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="KO5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="KP5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="KQ5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="KR5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="KS5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="KT5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="KU5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="KV5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="KW5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="KX5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="KY5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="KZ5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="LA5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="LB5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="LC5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="LD5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="LE5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="LF5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="LG5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="LH5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="LI5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="LJ5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="LK5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="LL5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="LM5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="LN5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="LO5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="LP5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="LQ5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="LR5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="LS5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="LT5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="LU5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="LV5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="LW5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="LX5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="LY5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="LZ5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="MA5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="MB5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="MC5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="MD5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="ME5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="MF5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="MG5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="MH5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="MI5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="MJ5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="MK5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="ML5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="MM5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="MN5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="MO5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="MP5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="MQ5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="MR5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="MS5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="MT5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="MU5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="MV5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="MW5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="MX5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="MY5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="MZ5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="NA5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="NB5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="NC5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="ND5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="NE5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="NF5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="NG5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="NH5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="NI5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="NJ5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="NK5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="NL5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="NM5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="NN5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="NO5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="NP5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="NQ5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="NR5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="NS5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="NT5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="NU5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="NV5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="NW5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="NX5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="NY5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="NZ5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="OA5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="OB5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="OC5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="OD5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="OE5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="OF5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="OG5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="OH5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="OI5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="OJ5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="OK5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="OL5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="OM5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="ON5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="OO5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="OP5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="OQ5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="OR5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="OS5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="OT5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="OU5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="OV5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="OW5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="OX5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="OY5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="OZ5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="PA5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="PB5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="PC5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="PD5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="PE5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="PF5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="PG5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="PH5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="PI5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="PJ5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="PK5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="PL5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="PM5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="PN5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="PO5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="PP5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="PQ5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="PR5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="PS5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="PT5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="PU5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="PV5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="PW5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="PX5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="PY5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="PZ5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="QA5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="QB5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="QC5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="QD5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="QE5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="QF5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="QG5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="QH5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="QI5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="QJ5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="QK5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="QL5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="QM5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="QN5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="QO5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="QP5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="QQ5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="QR5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="QS5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="QT5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="QU5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="QV5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="QW5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="QX5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="QY5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="QZ5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="RA5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="RB5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="RC5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="RD5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="RE5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="RF5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="RG5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="RH5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="RI5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="RJ5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="RK5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="RL5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="RM5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="RN5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="RO5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="RP5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="RQ5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="RR5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="RS5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="RT5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="RU5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="RV5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="RW5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="RX5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="RY5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="RZ5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="SA5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="SB5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="SC5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="SD5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="SE5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="SF5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="SG5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="SH5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="SI5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="SJ5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="SK5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="SL5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="SM5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="SN5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="SO5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="SP5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="SQ5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="SR5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="SS5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="ST5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="SU5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="SV5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="SW5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="SX5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="SY5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="SZ5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="TA5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="TB5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="TC5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="TD5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="TE5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="TF5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="TG5" s="6" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="TH5" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="TI5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:529" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B6" s="2">
         <v>0.79648241206030201</v>
@@ -8045,7 +8061,7 @@
     </row>
     <row r="7" spans="1:529" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B7" s="2">
         <v>0.81770833333333304</v>
@@ -8110,40 +8126,40 @@
       <c r="V7" s="1">
         <v>7</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7" s="3">
         <v>50.3411458333333</v>
       </c>
-      <c r="X7" s="1">
+      <c r="X7" s="3">
         <v>48.711509848672598</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Y7" s="3">
         <v>51.970781817994101</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="Z7" s="3">
         <v>49.6588541666667</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AA7" s="3">
         <v>48.029218182005899</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB7" s="3">
         <v>51.288490151327402</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AC7" s="3">
         <v>55.7083333333333</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AD7" s="3">
         <v>53.923149530314198</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AE7" s="3">
         <v>57.493517136352501</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AF7" s="3">
         <v>44.2916666666667</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AG7" s="3">
         <v>42.506482863647499</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AH7" s="3">
         <v>46.076850469685802</v>
       </c>
       <c r="AI7" s="2">
@@ -9631,177 +9647,373 @@
       <c r="TI7" s="2">
         <v>7.4321286113361099E-2</v>
       </c>
+    </row>
+    <row r="11" spans="1:529" x14ac:dyDescent="0.3">
+      <c r="AO11" s="26"/>
+    </row>
+    <row r="12" spans="1:529" x14ac:dyDescent="0.3">
+      <c r="AO12" s="26"/>
+    </row>
+    <row r="13" spans="1:529" x14ac:dyDescent="0.3">
+      <c r="AO13" s="26"/>
+    </row>
+    <row r="14" spans="1:529" x14ac:dyDescent="0.3">
+      <c r="AO14" s="26"/>
+    </row>
+    <row r="15" spans="1:529" x14ac:dyDescent="0.3">
+      <c r="AO15" s="26"/>
+    </row>
+    <row r="16" spans="1:529" x14ac:dyDescent="0.3">
+      <c r="AO16" s="26"/>
+    </row>
+    <row r="17" spans="41:41" x14ac:dyDescent="0.3">
+      <c r="AO17" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="535">
-    <mergeCell ref="SR4:ST4"/>
-    <mergeCell ref="SU4:SW4"/>
-    <mergeCell ref="SX4:SZ4"/>
-    <mergeCell ref="TA4:TC4"/>
-    <mergeCell ref="TD4:TF4"/>
-    <mergeCell ref="TG4:TI4"/>
-    <mergeCell ref="RZ4:SB4"/>
-    <mergeCell ref="SC4:SE4"/>
-    <mergeCell ref="SF4:SH4"/>
-    <mergeCell ref="SI4:SK4"/>
-    <mergeCell ref="SL4:SN4"/>
-    <mergeCell ref="SO4:SQ4"/>
-    <mergeCell ref="RH4:RJ4"/>
-    <mergeCell ref="RK4:RM4"/>
-    <mergeCell ref="RN4:RP4"/>
-    <mergeCell ref="RQ4:RS4"/>
-    <mergeCell ref="RT4:RV4"/>
-    <mergeCell ref="RW4:RY4"/>
-    <mergeCell ref="QP4:QR4"/>
-    <mergeCell ref="QS4:QU4"/>
-    <mergeCell ref="QV4:QX4"/>
-    <mergeCell ref="QY4:RA4"/>
-    <mergeCell ref="RB4:RD4"/>
-    <mergeCell ref="RE4:RG4"/>
-    <mergeCell ref="PX4:PZ4"/>
-    <mergeCell ref="QA4:QC4"/>
-    <mergeCell ref="QD4:QF4"/>
-    <mergeCell ref="QG4:QI4"/>
-    <mergeCell ref="QJ4:QL4"/>
-    <mergeCell ref="QM4:QO4"/>
-    <mergeCell ref="PF4:PH4"/>
-    <mergeCell ref="PI4:PK4"/>
-    <mergeCell ref="PL4:PN4"/>
-    <mergeCell ref="PO4:PQ4"/>
-    <mergeCell ref="PR4:PT4"/>
-    <mergeCell ref="PU4:PW4"/>
-    <mergeCell ref="ON4:OP4"/>
-    <mergeCell ref="OQ4:OS4"/>
-    <mergeCell ref="OT4:OV4"/>
-    <mergeCell ref="OW4:OY4"/>
-    <mergeCell ref="OZ4:PB4"/>
-    <mergeCell ref="PC4:PE4"/>
-    <mergeCell ref="NV4:NX4"/>
-    <mergeCell ref="NY4:OA4"/>
-    <mergeCell ref="OB4:OD4"/>
-    <mergeCell ref="OE4:OG4"/>
-    <mergeCell ref="OH4:OJ4"/>
-    <mergeCell ref="OK4:OM4"/>
-    <mergeCell ref="ND4:NF4"/>
-    <mergeCell ref="NG4:NI4"/>
-    <mergeCell ref="NJ4:NL4"/>
-    <mergeCell ref="NM4:NO4"/>
-    <mergeCell ref="NP4:NR4"/>
-    <mergeCell ref="NS4:NU4"/>
-    <mergeCell ref="ML4:MN4"/>
-    <mergeCell ref="MO4:MQ4"/>
-    <mergeCell ref="MR4:MT4"/>
-    <mergeCell ref="MU4:MW4"/>
-    <mergeCell ref="MX4:MZ4"/>
-    <mergeCell ref="NA4:NC4"/>
-    <mergeCell ref="LT4:LV4"/>
-    <mergeCell ref="LW4:LY4"/>
-    <mergeCell ref="LZ4:MB4"/>
-    <mergeCell ref="MC4:ME4"/>
-    <mergeCell ref="MF4:MH4"/>
-    <mergeCell ref="MI4:MK4"/>
-    <mergeCell ref="LB4:LD4"/>
-    <mergeCell ref="LE4:LG4"/>
-    <mergeCell ref="LH4:LJ4"/>
-    <mergeCell ref="LK4:LM4"/>
-    <mergeCell ref="LN4:LP4"/>
-    <mergeCell ref="LQ4:LS4"/>
-    <mergeCell ref="KJ4:KL4"/>
-    <mergeCell ref="KM4:KO4"/>
-    <mergeCell ref="KP4:KR4"/>
-    <mergeCell ref="KS4:KU4"/>
-    <mergeCell ref="KV4:KX4"/>
-    <mergeCell ref="KY4:LA4"/>
-    <mergeCell ref="JR4:JT4"/>
-    <mergeCell ref="JU4:JW4"/>
-    <mergeCell ref="JX4:JZ4"/>
-    <mergeCell ref="KA4:KC4"/>
-    <mergeCell ref="KD4:KF4"/>
-    <mergeCell ref="KG4:KI4"/>
-    <mergeCell ref="IZ4:JB4"/>
-    <mergeCell ref="JC4:JE4"/>
-    <mergeCell ref="JF4:JH4"/>
-    <mergeCell ref="JI4:JK4"/>
-    <mergeCell ref="JL4:JN4"/>
-    <mergeCell ref="JO4:JQ4"/>
-    <mergeCell ref="IH4:IJ4"/>
-    <mergeCell ref="IK4:IM4"/>
-    <mergeCell ref="IN4:IP4"/>
-    <mergeCell ref="IQ4:IS4"/>
-    <mergeCell ref="IT4:IV4"/>
-    <mergeCell ref="IW4:IY4"/>
-    <mergeCell ref="HP4:HR4"/>
-    <mergeCell ref="HS4:HU4"/>
-    <mergeCell ref="HV4:HX4"/>
-    <mergeCell ref="HY4:IA4"/>
-    <mergeCell ref="IB4:ID4"/>
-    <mergeCell ref="IE4:IG4"/>
-    <mergeCell ref="GX4:GZ4"/>
-    <mergeCell ref="HA4:HC4"/>
-    <mergeCell ref="HD4:HF4"/>
-    <mergeCell ref="HG4:HI4"/>
-    <mergeCell ref="HJ4:HL4"/>
-    <mergeCell ref="HM4:HO4"/>
-    <mergeCell ref="GF4:GH4"/>
-    <mergeCell ref="GI4:GK4"/>
-    <mergeCell ref="GL4:GN4"/>
-    <mergeCell ref="GO4:GQ4"/>
-    <mergeCell ref="GR4:GT4"/>
-    <mergeCell ref="GU4:GW4"/>
-    <mergeCell ref="FN4:FP4"/>
-    <mergeCell ref="FQ4:FS4"/>
-    <mergeCell ref="FT4:FV4"/>
-    <mergeCell ref="FW4:FY4"/>
-    <mergeCell ref="FZ4:GB4"/>
-    <mergeCell ref="GC4:GE4"/>
-    <mergeCell ref="EV4:EX4"/>
-    <mergeCell ref="EY4:FA4"/>
-    <mergeCell ref="FB4:FD4"/>
-    <mergeCell ref="FE4:FG4"/>
-    <mergeCell ref="FH4:FJ4"/>
-    <mergeCell ref="FK4:FM4"/>
-    <mergeCell ref="ED4:EF4"/>
-    <mergeCell ref="EG4:EI4"/>
-    <mergeCell ref="EJ4:EL4"/>
-    <mergeCell ref="EM4:EO4"/>
-    <mergeCell ref="EP4:ER4"/>
-    <mergeCell ref="ES4:EU4"/>
-    <mergeCell ref="DL4:DN4"/>
-    <mergeCell ref="DO4:DQ4"/>
-    <mergeCell ref="DR4:DT4"/>
-    <mergeCell ref="DU4:DW4"/>
-    <mergeCell ref="DX4:DZ4"/>
-    <mergeCell ref="EA4:EC4"/>
-    <mergeCell ref="CT4:CV4"/>
-    <mergeCell ref="CW4:CY4"/>
-    <mergeCell ref="CZ4:DB4"/>
-    <mergeCell ref="DC4:DE4"/>
-    <mergeCell ref="DF4:DH4"/>
-    <mergeCell ref="DI4:DK4"/>
-    <mergeCell ref="CB4:CD4"/>
-    <mergeCell ref="CE4:CG4"/>
-    <mergeCell ref="CH4:CJ4"/>
-    <mergeCell ref="CK4:CM4"/>
-    <mergeCell ref="CN4:CP4"/>
-    <mergeCell ref="CQ4:CS4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="BM4:BO4"/>
-    <mergeCell ref="BP4:BR4"/>
-    <mergeCell ref="BS4:BU4"/>
-    <mergeCell ref="BV4:BX4"/>
-    <mergeCell ref="BY4:CA4"/>
-    <mergeCell ref="AR4:AT4"/>
-    <mergeCell ref="AU4:AW4"/>
-    <mergeCell ref="AX4:AZ4"/>
-    <mergeCell ref="BA4:BC4"/>
-    <mergeCell ref="BD4:BF4"/>
-    <mergeCell ref="BG4:BI4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="AL4:AN4"/>
-    <mergeCell ref="AO4:AQ4"/>
+    <mergeCell ref="B1:BL1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="AL3:AN3"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="AO3:AQ3"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="BD2:BF2"/>
+    <mergeCell ref="BD3:BF3"/>
+    <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="BG3:BI3"/>
+    <mergeCell ref="BJ2:BL2"/>
+    <mergeCell ref="BJ3:BL3"/>
+    <mergeCell ref="AU2:AW2"/>
+    <mergeCell ref="AU3:AW3"/>
+    <mergeCell ref="AX2:AZ2"/>
+    <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="BA3:BC3"/>
+    <mergeCell ref="BY3:CA3"/>
+    <mergeCell ref="CB2:CD2"/>
+    <mergeCell ref="CB3:CD3"/>
+    <mergeCell ref="CE2:CG2"/>
+    <mergeCell ref="CE3:CG3"/>
+    <mergeCell ref="CH2:CJ2"/>
+    <mergeCell ref="CH3:CJ3"/>
+    <mergeCell ref="BM1:FY1"/>
+    <mergeCell ref="BM2:BO2"/>
+    <mergeCell ref="BM3:BO3"/>
+    <mergeCell ref="BP2:BR2"/>
+    <mergeCell ref="BP3:BR3"/>
+    <mergeCell ref="BS2:BU2"/>
+    <mergeCell ref="BS3:BU3"/>
+    <mergeCell ref="BV2:BX2"/>
+    <mergeCell ref="BV3:BX3"/>
+    <mergeCell ref="BY2:CA2"/>
+    <mergeCell ref="CT2:CV2"/>
+    <mergeCell ref="CT3:CV3"/>
+    <mergeCell ref="CW2:CY2"/>
+    <mergeCell ref="CW3:CY3"/>
+    <mergeCell ref="CZ2:DB2"/>
+    <mergeCell ref="CZ3:DB3"/>
+    <mergeCell ref="CK2:CM2"/>
+    <mergeCell ref="CK3:CM3"/>
+    <mergeCell ref="CN2:CP2"/>
+    <mergeCell ref="CN3:CP3"/>
+    <mergeCell ref="CQ2:CS2"/>
+    <mergeCell ref="CQ3:CS3"/>
+    <mergeCell ref="DL2:DN2"/>
+    <mergeCell ref="DL3:DN3"/>
+    <mergeCell ref="DO2:DQ2"/>
+    <mergeCell ref="DO3:DQ3"/>
+    <mergeCell ref="DR2:DT2"/>
+    <mergeCell ref="DR3:DT3"/>
+    <mergeCell ref="DC2:DE2"/>
+    <mergeCell ref="DC3:DE3"/>
+    <mergeCell ref="DF2:DH2"/>
+    <mergeCell ref="DF3:DH3"/>
+    <mergeCell ref="DI2:DK2"/>
+    <mergeCell ref="DI3:DK3"/>
+    <mergeCell ref="ED2:EF2"/>
+    <mergeCell ref="ED3:EF3"/>
+    <mergeCell ref="EG2:EI2"/>
+    <mergeCell ref="EG3:EI3"/>
+    <mergeCell ref="EJ2:EL2"/>
+    <mergeCell ref="EJ3:EL3"/>
+    <mergeCell ref="DU2:DW2"/>
+    <mergeCell ref="DU3:DW3"/>
+    <mergeCell ref="DX2:DZ2"/>
+    <mergeCell ref="DX3:DZ3"/>
+    <mergeCell ref="EA2:EC2"/>
+    <mergeCell ref="EA3:EC3"/>
+    <mergeCell ref="EV2:EX2"/>
+    <mergeCell ref="EV3:EX3"/>
+    <mergeCell ref="EY2:FA2"/>
+    <mergeCell ref="EY3:FA3"/>
+    <mergeCell ref="FB2:FD2"/>
+    <mergeCell ref="FB3:FD3"/>
+    <mergeCell ref="EM2:EO2"/>
+    <mergeCell ref="EM3:EO3"/>
+    <mergeCell ref="EP2:ER2"/>
+    <mergeCell ref="EP3:ER3"/>
+    <mergeCell ref="ES2:EU2"/>
+    <mergeCell ref="ES3:EU3"/>
+    <mergeCell ref="FN2:FP2"/>
+    <mergeCell ref="FN3:FP3"/>
+    <mergeCell ref="FQ2:FS2"/>
+    <mergeCell ref="FQ3:FS3"/>
+    <mergeCell ref="FT2:FV2"/>
+    <mergeCell ref="FT3:FV3"/>
+    <mergeCell ref="FE2:FG2"/>
+    <mergeCell ref="FE3:FG3"/>
+    <mergeCell ref="FH2:FJ2"/>
+    <mergeCell ref="FH3:FJ3"/>
+    <mergeCell ref="FK2:FM2"/>
+    <mergeCell ref="FK3:FM3"/>
+    <mergeCell ref="FW2:FY2"/>
+    <mergeCell ref="FW3:FY3"/>
+    <mergeCell ref="FZ1:GN1"/>
+    <mergeCell ref="FZ2:GB2"/>
+    <mergeCell ref="FZ3:GB3"/>
+    <mergeCell ref="GC2:GE2"/>
+    <mergeCell ref="GC3:GE3"/>
+    <mergeCell ref="GF2:GH2"/>
+    <mergeCell ref="GF3:GH3"/>
+    <mergeCell ref="GI2:GK2"/>
+    <mergeCell ref="GI3:GK3"/>
+    <mergeCell ref="GL2:GN2"/>
+    <mergeCell ref="GL3:GN3"/>
+    <mergeCell ref="GO2:GQ2"/>
+    <mergeCell ref="GO3:GQ3"/>
+    <mergeCell ref="GR2:GT2"/>
+    <mergeCell ref="GR3:GT3"/>
+    <mergeCell ref="GU2:GW2"/>
+    <mergeCell ref="GU3:GW3"/>
+    <mergeCell ref="HG2:HI2"/>
+    <mergeCell ref="HG3:HI3"/>
+    <mergeCell ref="HJ2:HL2"/>
+    <mergeCell ref="HJ3:HL3"/>
+    <mergeCell ref="HM2:HO2"/>
+    <mergeCell ref="HM3:HO3"/>
+    <mergeCell ref="GX2:GZ2"/>
+    <mergeCell ref="GX3:GZ3"/>
+    <mergeCell ref="HA2:HC2"/>
+    <mergeCell ref="HA3:HC3"/>
+    <mergeCell ref="HD2:HF2"/>
+    <mergeCell ref="HD3:HF3"/>
+    <mergeCell ref="IB2:ID2"/>
+    <mergeCell ref="IB3:ID3"/>
+    <mergeCell ref="IE2:IG2"/>
+    <mergeCell ref="IE3:IG3"/>
+    <mergeCell ref="HP2:HR2"/>
+    <mergeCell ref="HP3:HR3"/>
+    <mergeCell ref="HS2:HU2"/>
+    <mergeCell ref="HS3:HU3"/>
+    <mergeCell ref="HV2:HX2"/>
+    <mergeCell ref="HV3:HX3"/>
+    <mergeCell ref="IZ2:JB2"/>
+    <mergeCell ref="IZ3:JB3"/>
+    <mergeCell ref="GO1:JE1"/>
+    <mergeCell ref="JC2:JE2"/>
+    <mergeCell ref="JC3:JE3"/>
+    <mergeCell ref="JF1:NU1"/>
+    <mergeCell ref="JF2:JH2"/>
+    <mergeCell ref="JF3:JH3"/>
+    <mergeCell ref="JI2:JK2"/>
+    <mergeCell ref="JI3:JK3"/>
+    <mergeCell ref="IQ2:IS2"/>
+    <mergeCell ref="IQ3:IS3"/>
+    <mergeCell ref="IT2:IV2"/>
+    <mergeCell ref="IT3:IV3"/>
+    <mergeCell ref="IW2:IY2"/>
+    <mergeCell ref="IW3:IY3"/>
+    <mergeCell ref="IH2:IJ2"/>
+    <mergeCell ref="IH3:IJ3"/>
+    <mergeCell ref="IK2:IM2"/>
+    <mergeCell ref="IK3:IM3"/>
+    <mergeCell ref="IN2:IP2"/>
+    <mergeCell ref="IN3:IP3"/>
+    <mergeCell ref="HY2:IA2"/>
+    <mergeCell ref="HY3:IA3"/>
+    <mergeCell ref="JU2:JW2"/>
+    <mergeCell ref="JU3:JW3"/>
+    <mergeCell ref="JX2:JZ2"/>
+    <mergeCell ref="JX3:JZ3"/>
+    <mergeCell ref="KA2:KC2"/>
+    <mergeCell ref="KA3:KC3"/>
+    <mergeCell ref="JL2:JN2"/>
+    <mergeCell ref="JL3:JN3"/>
+    <mergeCell ref="JO2:JQ2"/>
+    <mergeCell ref="JO3:JQ3"/>
+    <mergeCell ref="JR2:JT2"/>
+    <mergeCell ref="JR3:JT3"/>
+    <mergeCell ref="KM2:KO2"/>
+    <mergeCell ref="KM3:KO3"/>
+    <mergeCell ref="KP2:KR2"/>
+    <mergeCell ref="KP3:KR3"/>
+    <mergeCell ref="KS2:KU2"/>
+    <mergeCell ref="KS3:KU3"/>
+    <mergeCell ref="KD2:KF2"/>
+    <mergeCell ref="KD3:KF3"/>
+    <mergeCell ref="KG2:KI2"/>
+    <mergeCell ref="KG3:KI3"/>
+    <mergeCell ref="KJ2:KL2"/>
+    <mergeCell ref="KJ3:KL3"/>
+    <mergeCell ref="LE2:LG2"/>
+    <mergeCell ref="LE3:LG3"/>
+    <mergeCell ref="LH2:LJ2"/>
+    <mergeCell ref="LH3:LJ3"/>
+    <mergeCell ref="LK2:LM2"/>
+    <mergeCell ref="LK3:LM3"/>
+    <mergeCell ref="KV2:KX2"/>
+    <mergeCell ref="KV3:KX3"/>
+    <mergeCell ref="KY2:LA2"/>
+    <mergeCell ref="KY3:LA3"/>
+    <mergeCell ref="LB2:LD2"/>
+    <mergeCell ref="LB3:LD3"/>
+    <mergeCell ref="LW2:LY2"/>
+    <mergeCell ref="LW3:LY3"/>
+    <mergeCell ref="LZ2:MB2"/>
+    <mergeCell ref="LZ3:MB3"/>
+    <mergeCell ref="MC2:ME2"/>
+    <mergeCell ref="MC3:ME3"/>
+    <mergeCell ref="LN2:LP2"/>
+    <mergeCell ref="LN3:LP3"/>
+    <mergeCell ref="LQ2:LS2"/>
+    <mergeCell ref="LQ3:LS3"/>
+    <mergeCell ref="LT2:LV2"/>
+    <mergeCell ref="LT3:LV3"/>
+    <mergeCell ref="MO2:MQ2"/>
+    <mergeCell ref="MO3:MQ3"/>
+    <mergeCell ref="MR2:MT2"/>
+    <mergeCell ref="MR3:MT3"/>
+    <mergeCell ref="MU2:MW2"/>
+    <mergeCell ref="MU3:MW3"/>
+    <mergeCell ref="MF2:MH2"/>
+    <mergeCell ref="MF3:MH3"/>
+    <mergeCell ref="MI2:MK2"/>
+    <mergeCell ref="MI3:MK3"/>
+    <mergeCell ref="ML2:MN2"/>
+    <mergeCell ref="ML3:MN3"/>
+    <mergeCell ref="NG2:NI2"/>
+    <mergeCell ref="NG3:NI3"/>
+    <mergeCell ref="NJ2:NL2"/>
+    <mergeCell ref="NJ3:NL3"/>
+    <mergeCell ref="NM2:NO2"/>
+    <mergeCell ref="NM3:NO3"/>
+    <mergeCell ref="MX2:MZ2"/>
+    <mergeCell ref="MX3:MZ3"/>
+    <mergeCell ref="NA2:NC2"/>
+    <mergeCell ref="NA3:NC3"/>
+    <mergeCell ref="ND2:NF2"/>
+    <mergeCell ref="ND3:NF3"/>
+    <mergeCell ref="OB3:OD3"/>
+    <mergeCell ref="OE2:OG2"/>
+    <mergeCell ref="OE3:OG3"/>
+    <mergeCell ref="OH2:OJ2"/>
+    <mergeCell ref="OH3:OJ3"/>
+    <mergeCell ref="OK2:OM2"/>
+    <mergeCell ref="OK3:OM3"/>
+    <mergeCell ref="NP2:NR2"/>
+    <mergeCell ref="NP3:NR3"/>
+    <mergeCell ref="NS2:NU2"/>
+    <mergeCell ref="NS3:NU3"/>
+    <mergeCell ref="NV2:NX2"/>
+    <mergeCell ref="NV3:NX3"/>
+    <mergeCell ref="NY2:OA2"/>
+    <mergeCell ref="NY3:OA3"/>
+    <mergeCell ref="OB2:OD2"/>
+    <mergeCell ref="OW2:OY2"/>
+    <mergeCell ref="OW3:OY3"/>
+    <mergeCell ref="OZ2:PB2"/>
+    <mergeCell ref="OZ3:PB3"/>
+    <mergeCell ref="PC2:PE2"/>
+    <mergeCell ref="PC3:PE3"/>
+    <mergeCell ref="ON2:OP2"/>
+    <mergeCell ref="ON3:OP3"/>
+    <mergeCell ref="OQ2:OS2"/>
+    <mergeCell ref="OQ3:OS3"/>
+    <mergeCell ref="OT2:OV2"/>
+    <mergeCell ref="OT3:OV3"/>
+    <mergeCell ref="PO2:PQ2"/>
+    <mergeCell ref="PO3:PQ3"/>
+    <mergeCell ref="PR2:PT2"/>
+    <mergeCell ref="PR3:PT3"/>
+    <mergeCell ref="PU2:PW2"/>
+    <mergeCell ref="PU3:PW3"/>
+    <mergeCell ref="PF2:PH2"/>
+    <mergeCell ref="PF3:PH3"/>
+    <mergeCell ref="PI2:PK2"/>
+    <mergeCell ref="PI3:PK3"/>
+    <mergeCell ref="PL2:PN2"/>
+    <mergeCell ref="PL3:PN3"/>
+    <mergeCell ref="QG2:QI2"/>
+    <mergeCell ref="QG3:QI3"/>
+    <mergeCell ref="QJ2:QL2"/>
+    <mergeCell ref="QJ3:QL3"/>
+    <mergeCell ref="QM2:QO2"/>
+    <mergeCell ref="QM3:QO3"/>
+    <mergeCell ref="PX2:PZ2"/>
+    <mergeCell ref="PX3:PZ3"/>
+    <mergeCell ref="QA2:QC2"/>
+    <mergeCell ref="QA3:QC3"/>
+    <mergeCell ref="QD2:QF2"/>
+    <mergeCell ref="QD3:QF3"/>
+    <mergeCell ref="QP2:QR2"/>
+    <mergeCell ref="QP3:QR3"/>
+    <mergeCell ref="QS2:QU2"/>
+    <mergeCell ref="QS3:QU3"/>
+    <mergeCell ref="QV1:TI1"/>
+    <mergeCell ref="QV2:QX2"/>
+    <mergeCell ref="QV3:QX3"/>
+    <mergeCell ref="QY2:RA2"/>
+    <mergeCell ref="QY3:RA3"/>
+    <mergeCell ref="RB2:RD2"/>
+    <mergeCell ref="NV1:QU1"/>
+    <mergeCell ref="RN2:RP2"/>
+    <mergeCell ref="RN3:RP3"/>
+    <mergeCell ref="RQ2:RS2"/>
+    <mergeCell ref="RQ3:RS3"/>
+    <mergeCell ref="RT2:RV2"/>
+    <mergeCell ref="RT3:RV3"/>
+    <mergeCell ref="RB3:RD3"/>
+    <mergeCell ref="RE2:RG2"/>
+    <mergeCell ref="RE3:RG3"/>
+    <mergeCell ref="RH2:RJ2"/>
+    <mergeCell ref="RH3:RJ3"/>
+    <mergeCell ref="RK2:RM2"/>
+    <mergeCell ref="RK3:RM3"/>
+    <mergeCell ref="SI2:SK2"/>
+    <mergeCell ref="SI3:SK3"/>
+    <mergeCell ref="SL2:SN2"/>
+    <mergeCell ref="SL3:SN3"/>
+    <mergeCell ref="RW2:RY2"/>
+    <mergeCell ref="RW3:RY3"/>
+    <mergeCell ref="RZ2:SB2"/>
+    <mergeCell ref="RZ3:SB3"/>
+    <mergeCell ref="SC2:SE2"/>
+    <mergeCell ref="SC3:SE3"/>
     <mergeCell ref="TG2:TI2"/>
     <mergeCell ref="TG3:TI3"/>
     <mergeCell ref="B4:D4"/>
@@ -9826,349 +10038,174 @@
     <mergeCell ref="SU3:SW3"/>
     <mergeCell ref="SF2:SH2"/>
     <mergeCell ref="SF3:SH3"/>
-    <mergeCell ref="SI2:SK2"/>
-    <mergeCell ref="SI3:SK3"/>
-    <mergeCell ref="SL2:SN2"/>
-    <mergeCell ref="SL3:SN3"/>
-    <mergeCell ref="RW2:RY2"/>
-    <mergeCell ref="RW3:RY3"/>
-    <mergeCell ref="RZ2:SB2"/>
-    <mergeCell ref="RZ3:SB3"/>
-    <mergeCell ref="SC2:SE2"/>
-    <mergeCell ref="SC3:SE3"/>
-    <mergeCell ref="RN2:RP2"/>
-    <mergeCell ref="RN3:RP3"/>
-    <mergeCell ref="RQ2:RS2"/>
-    <mergeCell ref="RQ3:RS3"/>
-    <mergeCell ref="RT2:RV2"/>
-    <mergeCell ref="RT3:RV3"/>
-    <mergeCell ref="RB3:RD3"/>
-    <mergeCell ref="RE2:RG2"/>
-    <mergeCell ref="RE3:RG3"/>
-    <mergeCell ref="RH2:RJ2"/>
-    <mergeCell ref="RH3:RJ3"/>
-    <mergeCell ref="RK2:RM2"/>
-    <mergeCell ref="RK3:RM3"/>
-    <mergeCell ref="QP2:QR2"/>
-    <mergeCell ref="QP3:QR3"/>
-    <mergeCell ref="QS2:QU2"/>
-    <mergeCell ref="QS3:QU3"/>
-    <mergeCell ref="QV1:TI1"/>
-    <mergeCell ref="QV2:QX2"/>
-    <mergeCell ref="QV3:QX3"/>
-    <mergeCell ref="QY2:RA2"/>
-    <mergeCell ref="QY3:RA3"/>
-    <mergeCell ref="RB2:RD2"/>
-    <mergeCell ref="QG2:QI2"/>
-    <mergeCell ref="QG3:QI3"/>
-    <mergeCell ref="QJ2:QL2"/>
-    <mergeCell ref="QJ3:QL3"/>
-    <mergeCell ref="QM2:QO2"/>
-    <mergeCell ref="QM3:QO3"/>
-    <mergeCell ref="PX2:PZ2"/>
-    <mergeCell ref="PX3:PZ3"/>
-    <mergeCell ref="QA2:QC2"/>
-    <mergeCell ref="QA3:QC3"/>
-    <mergeCell ref="QD2:QF2"/>
-    <mergeCell ref="QD3:QF3"/>
-    <mergeCell ref="PO2:PQ2"/>
-    <mergeCell ref="PO3:PQ3"/>
-    <mergeCell ref="PR2:PT2"/>
-    <mergeCell ref="PR3:PT3"/>
-    <mergeCell ref="PU2:PW2"/>
-    <mergeCell ref="PU3:PW3"/>
-    <mergeCell ref="PF2:PH2"/>
-    <mergeCell ref="PF3:PH3"/>
-    <mergeCell ref="PI2:PK2"/>
-    <mergeCell ref="PI3:PK3"/>
-    <mergeCell ref="PL2:PN2"/>
-    <mergeCell ref="PL3:PN3"/>
-    <mergeCell ref="OW2:OY2"/>
-    <mergeCell ref="OW3:OY3"/>
-    <mergeCell ref="OZ2:PB2"/>
-    <mergeCell ref="OZ3:PB3"/>
-    <mergeCell ref="PC2:PE2"/>
-    <mergeCell ref="PC3:PE3"/>
-    <mergeCell ref="ON2:OP2"/>
-    <mergeCell ref="ON3:OP3"/>
-    <mergeCell ref="OQ2:OS2"/>
-    <mergeCell ref="OQ3:OS3"/>
-    <mergeCell ref="OT2:OV2"/>
-    <mergeCell ref="OT3:OV3"/>
-    <mergeCell ref="OB3:OD3"/>
-    <mergeCell ref="OE2:OG2"/>
-    <mergeCell ref="OE3:OG3"/>
-    <mergeCell ref="OH2:OJ2"/>
-    <mergeCell ref="OH3:OJ3"/>
-    <mergeCell ref="OK2:OM2"/>
-    <mergeCell ref="OK3:OM3"/>
-    <mergeCell ref="NP2:NR2"/>
-    <mergeCell ref="NP3:NR3"/>
-    <mergeCell ref="NS2:NU2"/>
-    <mergeCell ref="NS3:NU3"/>
-    <mergeCell ref="NV1:QU1"/>
-    <mergeCell ref="NV2:NX2"/>
-    <mergeCell ref="NV3:NX3"/>
-    <mergeCell ref="NY2:OA2"/>
-    <mergeCell ref="NY3:OA3"/>
-    <mergeCell ref="OB2:OD2"/>
-    <mergeCell ref="NG2:NI2"/>
-    <mergeCell ref="NG3:NI3"/>
-    <mergeCell ref="NJ2:NL2"/>
-    <mergeCell ref="NJ3:NL3"/>
-    <mergeCell ref="NM2:NO2"/>
-    <mergeCell ref="NM3:NO3"/>
-    <mergeCell ref="MX2:MZ2"/>
-    <mergeCell ref="MX3:MZ3"/>
-    <mergeCell ref="NA2:NC2"/>
-    <mergeCell ref="NA3:NC3"/>
-    <mergeCell ref="ND2:NF2"/>
-    <mergeCell ref="ND3:NF3"/>
-    <mergeCell ref="MO2:MQ2"/>
-    <mergeCell ref="MO3:MQ3"/>
-    <mergeCell ref="MR2:MT2"/>
-    <mergeCell ref="MR3:MT3"/>
-    <mergeCell ref="MU2:MW2"/>
-    <mergeCell ref="MU3:MW3"/>
-    <mergeCell ref="MF2:MH2"/>
-    <mergeCell ref="MF3:MH3"/>
-    <mergeCell ref="MI2:MK2"/>
-    <mergeCell ref="MI3:MK3"/>
-    <mergeCell ref="ML2:MN2"/>
-    <mergeCell ref="ML3:MN3"/>
-    <mergeCell ref="LW2:LY2"/>
-    <mergeCell ref="LW3:LY3"/>
-    <mergeCell ref="LZ2:MB2"/>
-    <mergeCell ref="LZ3:MB3"/>
-    <mergeCell ref="MC2:ME2"/>
-    <mergeCell ref="MC3:ME3"/>
-    <mergeCell ref="LN2:LP2"/>
-    <mergeCell ref="LN3:LP3"/>
-    <mergeCell ref="LQ2:LS2"/>
-    <mergeCell ref="LQ3:LS3"/>
-    <mergeCell ref="LT2:LV2"/>
-    <mergeCell ref="LT3:LV3"/>
-    <mergeCell ref="LE2:LG2"/>
-    <mergeCell ref="LE3:LG3"/>
-    <mergeCell ref="LH2:LJ2"/>
-    <mergeCell ref="LH3:LJ3"/>
-    <mergeCell ref="LK2:LM2"/>
-    <mergeCell ref="LK3:LM3"/>
-    <mergeCell ref="KV2:KX2"/>
-    <mergeCell ref="KV3:KX3"/>
-    <mergeCell ref="KY2:LA2"/>
-    <mergeCell ref="KY3:LA3"/>
-    <mergeCell ref="LB2:LD2"/>
-    <mergeCell ref="LB3:LD3"/>
-    <mergeCell ref="KM2:KO2"/>
-    <mergeCell ref="KM3:KO3"/>
-    <mergeCell ref="KP2:KR2"/>
-    <mergeCell ref="KP3:KR3"/>
-    <mergeCell ref="KS2:KU2"/>
-    <mergeCell ref="KS3:KU3"/>
-    <mergeCell ref="KD2:KF2"/>
-    <mergeCell ref="KD3:KF3"/>
-    <mergeCell ref="KG2:KI2"/>
-    <mergeCell ref="KG3:KI3"/>
-    <mergeCell ref="KJ2:KL2"/>
-    <mergeCell ref="KJ3:KL3"/>
-    <mergeCell ref="JU2:JW2"/>
-    <mergeCell ref="JU3:JW3"/>
-    <mergeCell ref="JX2:JZ2"/>
-    <mergeCell ref="JX3:JZ3"/>
-    <mergeCell ref="KA2:KC2"/>
-    <mergeCell ref="KA3:KC3"/>
-    <mergeCell ref="JL2:JN2"/>
-    <mergeCell ref="JL3:JN3"/>
-    <mergeCell ref="JO2:JQ2"/>
-    <mergeCell ref="JO3:JQ3"/>
-    <mergeCell ref="JR2:JT2"/>
-    <mergeCell ref="JR3:JT3"/>
-    <mergeCell ref="IZ2:JB2"/>
-    <mergeCell ref="IZ3:JB3"/>
-    <mergeCell ref="GO1:JE1"/>
-    <mergeCell ref="JC2:JE2"/>
-    <mergeCell ref="JC3:JE3"/>
-    <mergeCell ref="JF1:NU1"/>
-    <mergeCell ref="JF2:JH2"/>
-    <mergeCell ref="JF3:JH3"/>
-    <mergeCell ref="JI2:JK2"/>
-    <mergeCell ref="JI3:JK3"/>
-    <mergeCell ref="IQ2:IS2"/>
-    <mergeCell ref="IQ3:IS3"/>
-    <mergeCell ref="IT2:IV2"/>
-    <mergeCell ref="IT3:IV3"/>
-    <mergeCell ref="IW2:IY2"/>
-    <mergeCell ref="IW3:IY3"/>
-    <mergeCell ref="IH2:IJ2"/>
-    <mergeCell ref="IH3:IJ3"/>
-    <mergeCell ref="IK2:IM2"/>
-    <mergeCell ref="IK3:IM3"/>
-    <mergeCell ref="IN2:IP2"/>
-    <mergeCell ref="IN3:IP3"/>
-    <mergeCell ref="HY2:IA2"/>
-    <mergeCell ref="HY3:IA3"/>
-    <mergeCell ref="IB2:ID2"/>
-    <mergeCell ref="IB3:ID3"/>
-    <mergeCell ref="IE2:IG2"/>
-    <mergeCell ref="IE3:IG3"/>
-    <mergeCell ref="HP2:HR2"/>
-    <mergeCell ref="HP3:HR3"/>
-    <mergeCell ref="HS2:HU2"/>
-    <mergeCell ref="HS3:HU3"/>
-    <mergeCell ref="HV2:HX2"/>
-    <mergeCell ref="HV3:HX3"/>
-    <mergeCell ref="HG2:HI2"/>
-    <mergeCell ref="HG3:HI3"/>
-    <mergeCell ref="HJ2:HL2"/>
-    <mergeCell ref="HJ3:HL3"/>
-    <mergeCell ref="HM2:HO2"/>
-    <mergeCell ref="HM3:HO3"/>
-    <mergeCell ref="GX2:GZ2"/>
-    <mergeCell ref="GX3:GZ3"/>
-    <mergeCell ref="HA2:HC2"/>
-    <mergeCell ref="HA3:HC3"/>
-    <mergeCell ref="HD2:HF2"/>
-    <mergeCell ref="HD3:HF3"/>
-    <mergeCell ref="GI3:GK3"/>
-    <mergeCell ref="GL2:GN2"/>
-    <mergeCell ref="GL3:GN3"/>
-    <mergeCell ref="GO2:GQ2"/>
-    <mergeCell ref="GO3:GQ3"/>
-    <mergeCell ref="GR2:GT2"/>
-    <mergeCell ref="GR3:GT3"/>
-    <mergeCell ref="GU2:GW2"/>
-    <mergeCell ref="GU3:GW3"/>
-    <mergeCell ref="FW2:FY2"/>
-    <mergeCell ref="FW3:FY3"/>
-    <mergeCell ref="FZ1:GN1"/>
-    <mergeCell ref="FZ2:GB2"/>
-    <mergeCell ref="FZ3:GB3"/>
-    <mergeCell ref="GC2:GE2"/>
-    <mergeCell ref="GC3:GE3"/>
-    <mergeCell ref="GF2:GH2"/>
-    <mergeCell ref="GF3:GH3"/>
-    <mergeCell ref="GI2:GK2"/>
-    <mergeCell ref="FN2:FP2"/>
-    <mergeCell ref="FN3:FP3"/>
-    <mergeCell ref="FQ2:FS2"/>
-    <mergeCell ref="FQ3:FS3"/>
-    <mergeCell ref="FT2:FV2"/>
-    <mergeCell ref="FT3:FV3"/>
-    <mergeCell ref="FE2:FG2"/>
-    <mergeCell ref="FE3:FG3"/>
-    <mergeCell ref="FH2:FJ2"/>
-    <mergeCell ref="FH3:FJ3"/>
-    <mergeCell ref="FK2:FM2"/>
-    <mergeCell ref="FK3:FM3"/>
-    <mergeCell ref="EV2:EX2"/>
-    <mergeCell ref="EV3:EX3"/>
-    <mergeCell ref="EY2:FA2"/>
-    <mergeCell ref="EY3:FA3"/>
-    <mergeCell ref="FB2:FD2"/>
-    <mergeCell ref="FB3:FD3"/>
-    <mergeCell ref="EM2:EO2"/>
-    <mergeCell ref="EM3:EO3"/>
-    <mergeCell ref="EP2:ER2"/>
-    <mergeCell ref="EP3:ER3"/>
-    <mergeCell ref="ES2:EU2"/>
-    <mergeCell ref="ES3:EU3"/>
-    <mergeCell ref="ED2:EF2"/>
-    <mergeCell ref="ED3:EF3"/>
-    <mergeCell ref="EG2:EI2"/>
-    <mergeCell ref="EG3:EI3"/>
-    <mergeCell ref="EJ2:EL2"/>
-    <mergeCell ref="EJ3:EL3"/>
-    <mergeCell ref="DU2:DW2"/>
-    <mergeCell ref="DU3:DW3"/>
-    <mergeCell ref="DX2:DZ2"/>
-    <mergeCell ref="DX3:DZ3"/>
-    <mergeCell ref="EA2:EC2"/>
-    <mergeCell ref="EA3:EC3"/>
-    <mergeCell ref="DL2:DN2"/>
-    <mergeCell ref="DL3:DN3"/>
-    <mergeCell ref="DO2:DQ2"/>
-    <mergeCell ref="DO3:DQ3"/>
-    <mergeCell ref="DR2:DT2"/>
-    <mergeCell ref="DR3:DT3"/>
-    <mergeCell ref="DC2:DE2"/>
-    <mergeCell ref="DC3:DE3"/>
-    <mergeCell ref="DF2:DH2"/>
-    <mergeCell ref="DF3:DH3"/>
-    <mergeCell ref="DI2:DK2"/>
-    <mergeCell ref="DI3:DK3"/>
-    <mergeCell ref="CT2:CV2"/>
-    <mergeCell ref="CT3:CV3"/>
-    <mergeCell ref="CW2:CY2"/>
-    <mergeCell ref="CW3:CY3"/>
-    <mergeCell ref="CZ2:DB2"/>
-    <mergeCell ref="CZ3:DB3"/>
-    <mergeCell ref="CK2:CM2"/>
-    <mergeCell ref="CK3:CM3"/>
-    <mergeCell ref="CN2:CP2"/>
-    <mergeCell ref="CN3:CP3"/>
-    <mergeCell ref="CQ2:CS2"/>
-    <mergeCell ref="CQ3:CS3"/>
-    <mergeCell ref="BY3:CA3"/>
-    <mergeCell ref="CB2:CD2"/>
-    <mergeCell ref="CB3:CD3"/>
-    <mergeCell ref="CE2:CG2"/>
-    <mergeCell ref="CE3:CG3"/>
-    <mergeCell ref="CH2:CJ2"/>
-    <mergeCell ref="CH3:CJ3"/>
-    <mergeCell ref="BM1:FY1"/>
-    <mergeCell ref="BM2:BO2"/>
-    <mergeCell ref="BM3:BO3"/>
-    <mergeCell ref="BP2:BR2"/>
-    <mergeCell ref="BP3:BR3"/>
-    <mergeCell ref="BS2:BU2"/>
-    <mergeCell ref="BS3:BU3"/>
-    <mergeCell ref="BV2:BX2"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="BY2:CA2"/>
-    <mergeCell ref="BD2:BF2"/>
-    <mergeCell ref="BD3:BF3"/>
-    <mergeCell ref="BG2:BI2"/>
-    <mergeCell ref="BG3:BI3"/>
-    <mergeCell ref="BJ2:BL2"/>
-    <mergeCell ref="BJ3:BL3"/>
-    <mergeCell ref="AU2:AW2"/>
-    <mergeCell ref="AU3:AW3"/>
-    <mergeCell ref="AX2:AZ2"/>
-    <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="BA3:BC3"/>
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="AL3:AN3"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AO3:AQ3"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="B1:BL1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="AR4:AT4"/>
+    <mergeCell ref="AU4:AW4"/>
+    <mergeCell ref="AX4:AZ4"/>
+    <mergeCell ref="BA4:BC4"/>
+    <mergeCell ref="BD4:BF4"/>
+    <mergeCell ref="BG4:BI4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AL4:AN4"/>
+    <mergeCell ref="AO4:AQ4"/>
+    <mergeCell ref="CB4:CD4"/>
+    <mergeCell ref="CE4:CG4"/>
+    <mergeCell ref="CH4:CJ4"/>
+    <mergeCell ref="CK4:CM4"/>
+    <mergeCell ref="CN4:CP4"/>
+    <mergeCell ref="CQ4:CS4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="BM4:BO4"/>
+    <mergeCell ref="BP4:BR4"/>
+    <mergeCell ref="BS4:BU4"/>
+    <mergeCell ref="BV4:BX4"/>
+    <mergeCell ref="BY4:CA4"/>
+    <mergeCell ref="DL4:DN4"/>
+    <mergeCell ref="DO4:DQ4"/>
+    <mergeCell ref="DR4:DT4"/>
+    <mergeCell ref="DU4:DW4"/>
+    <mergeCell ref="DX4:DZ4"/>
+    <mergeCell ref="EA4:EC4"/>
+    <mergeCell ref="CT4:CV4"/>
+    <mergeCell ref="CW4:CY4"/>
+    <mergeCell ref="CZ4:DB4"/>
+    <mergeCell ref="DC4:DE4"/>
+    <mergeCell ref="DF4:DH4"/>
+    <mergeCell ref="DI4:DK4"/>
+    <mergeCell ref="EV4:EX4"/>
+    <mergeCell ref="EY4:FA4"/>
+    <mergeCell ref="FB4:FD4"/>
+    <mergeCell ref="FE4:FG4"/>
+    <mergeCell ref="FH4:FJ4"/>
+    <mergeCell ref="FK4:FM4"/>
+    <mergeCell ref="ED4:EF4"/>
+    <mergeCell ref="EG4:EI4"/>
+    <mergeCell ref="EJ4:EL4"/>
+    <mergeCell ref="EM4:EO4"/>
+    <mergeCell ref="EP4:ER4"/>
+    <mergeCell ref="ES4:EU4"/>
+    <mergeCell ref="GF4:GH4"/>
+    <mergeCell ref="GI4:GK4"/>
+    <mergeCell ref="GL4:GN4"/>
+    <mergeCell ref="GO4:GQ4"/>
+    <mergeCell ref="GR4:GT4"/>
+    <mergeCell ref="GU4:GW4"/>
+    <mergeCell ref="FN4:FP4"/>
+    <mergeCell ref="FQ4:FS4"/>
+    <mergeCell ref="FT4:FV4"/>
+    <mergeCell ref="FW4:FY4"/>
+    <mergeCell ref="FZ4:GB4"/>
+    <mergeCell ref="GC4:GE4"/>
+    <mergeCell ref="HP4:HR4"/>
+    <mergeCell ref="HS4:HU4"/>
+    <mergeCell ref="HV4:HX4"/>
+    <mergeCell ref="HY4:IA4"/>
+    <mergeCell ref="IB4:ID4"/>
+    <mergeCell ref="IE4:IG4"/>
+    <mergeCell ref="GX4:GZ4"/>
+    <mergeCell ref="HA4:HC4"/>
+    <mergeCell ref="HD4:HF4"/>
+    <mergeCell ref="HG4:HI4"/>
+    <mergeCell ref="HJ4:HL4"/>
+    <mergeCell ref="HM4:HO4"/>
+    <mergeCell ref="IZ4:JB4"/>
+    <mergeCell ref="JC4:JE4"/>
+    <mergeCell ref="JF4:JH4"/>
+    <mergeCell ref="JI4:JK4"/>
+    <mergeCell ref="JL4:JN4"/>
+    <mergeCell ref="JO4:JQ4"/>
+    <mergeCell ref="IH4:IJ4"/>
+    <mergeCell ref="IK4:IM4"/>
+    <mergeCell ref="IN4:IP4"/>
+    <mergeCell ref="IQ4:IS4"/>
+    <mergeCell ref="IT4:IV4"/>
+    <mergeCell ref="IW4:IY4"/>
+    <mergeCell ref="KJ4:KL4"/>
+    <mergeCell ref="KM4:KO4"/>
+    <mergeCell ref="KP4:KR4"/>
+    <mergeCell ref="KS4:KU4"/>
+    <mergeCell ref="KV4:KX4"/>
+    <mergeCell ref="KY4:LA4"/>
+    <mergeCell ref="JR4:JT4"/>
+    <mergeCell ref="JU4:JW4"/>
+    <mergeCell ref="JX4:JZ4"/>
+    <mergeCell ref="KA4:KC4"/>
+    <mergeCell ref="KD4:KF4"/>
+    <mergeCell ref="KG4:KI4"/>
+    <mergeCell ref="LT4:LV4"/>
+    <mergeCell ref="LW4:LY4"/>
+    <mergeCell ref="LZ4:MB4"/>
+    <mergeCell ref="MC4:ME4"/>
+    <mergeCell ref="MF4:MH4"/>
+    <mergeCell ref="MI4:MK4"/>
+    <mergeCell ref="LB4:LD4"/>
+    <mergeCell ref="LE4:LG4"/>
+    <mergeCell ref="LH4:LJ4"/>
+    <mergeCell ref="LK4:LM4"/>
+    <mergeCell ref="LN4:LP4"/>
+    <mergeCell ref="LQ4:LS4"/>
+    <mergeCell ref="ND4:NF4"/>
+    <mergeCell ref="NG4:NI4"/>
+    <mergeCell ref="NJ4:NL4"/>
+    <mergeCell ref="NM4:NO4"/>
+    <mergeCell ref="NP4:NR4"/>
+    <mergeCell ref="NS4:NU4"/>
+    <mergeCell ref="ML4:MN4"/>
+    <mergeCell ref="MO4:MQ4"/>
+    <mergeCell ref="MR4:MT4"/>
+    <mergeCell ref="MU4:MW4"/>
+    <mergeCell ref="MX4:MZ4"/>
+    <mergeCell ref="NA4:NC4"/>
+    <mergeCell ref="ON4:OP4"/>
+    <mergeCell ref="OQ4:OS4"/>
+    <mergeCell ref="OT4:OV4"/>
+    <mergeCell ref="OW4:OY4"/>
+    <mergeCell ref="OZ4:PB4"/>
+    <mergeCell ref="PC4:PE4"/>
+    <mergeCell ref="NV4:NX4"/>
+    <mergeCell ref="NY4:OA4"/>
+    <mergeCell ref="OB4:OD4"/>
+    <mergeCell ref="OE4:OG4"/>
+    <mergeCell ref="OH4:OJ4"/>
+    <mergeCell ref="OK4:OM4"/>
+    <mergeCell ref="PX4:PZ4"/>
+    <mergeCell ref="QA4:QC4"/>
+    <mergeCell ref="QD4:QF4"/>
+    <mergeCell ref="QG4:QI4"/>
+    <mergeCell ref="QJ4:QL4"/>
+    <mergeCell ref="QM4:QO4"/>
+    <mergeCell ref="PF4:PH4"/>
+    <mergeCell ref="PI4:PK4"/>
+    <mergeCell ref="PL4:PN4"/>
+    <mergeCell ref="PO4:PQ4"/>
+    <mergeCell ref="PR4:PT4"/>
+    <mergeCell ref="PU4:PW4"/>
+    <mergeCell ref="RH4:RJ4"/>
+    <mergeCell ref="RK4:RM4"/>
+    <mergeCell ref="RN4:RP4"/>
+    <mergeCell ref="RQ4:RS4"/>
+    <mergeCell ref="RT4:RV4"/>
+    <mergeCell ref="RW4:RY4"/>
+    <mergeCell ref="QP4:QR4"/>
+    <mergeCell ref="QS4:QU4"/>
+    <mergeCell ref="QV4:QX4"/>
+    <mergeCell ref="QY4:RA4"/>
+    <mergeCell ref="RB4:RD4"/>
+    <mergeCell ref="RE4:RG4"/>
+    <mergeCell ref="SR4:ST4"/>
+    <mergeCell ref="SU4:SW4"/>
+    <mergeCell ref="SX4:SZ4"/>
+    <mergeCell ref="TA4:TC4"/>
+    <mergeCell ref="TD4:TF4"/>
+    <mergeCell ref="TG4:TI4"/>
+    <mergeCell ref="RZ4:SB4"/>
+    <mergeCell ref="SC4:SE4"/>
+    <mergeCell ref="SF4:SH4"/>
+    <mergeCell ref="SI4:SK4"/>
+    <mergeCell ref="SL4:SN4"/>
+    <mergeCell ref="SO4:SQ4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
